--- a/experiment/result.xlsx
+++ b/experiment/result.xlsx
@@ -377,167 +377,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="F1" t="str">
-        <v>gist1m</v>
-      </c>
-      <c r="L1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v>0</v>
-      </c>
-      <c r="C2" t="str">
-        <v>1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>2</v>
-      </c>
-      <c r="E2" t="str">
-        <v>3</v>
-      </c>
-      <c r="F2" t="str">
-        <v>4</v>
-      </c>
-      <c r="G2" t="str">
-        <v>5</v>
-      </c>
-      <c r="H2" t="str">
-        <v>6</v>
-      </c>
-      <c r="I2" t="str">
-        <v>7</v>
-      </c>
-      <c r="J2" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>bf</v>
-      </c>
-      <c r="B3" t="str">
-        <v>54.3</v>
-      </c>
-      <c r="C3" t="str">
-        <v>55.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>gph</v>
-      </c>
-      <c r="B4" t="str">
-        <v>0.4</v>
-      </c>
-      <c r="C4" t="str">
-        <v>1.3</v>
-      </c>
-      <c r="D4" t="str">
-        <v>1.9</v>
-      </c>
-      <c r="E4" t="str">
-        <v>4.0</v>
-      </c>
-      <c r="F4" t="str">
-        <v>5.2</v>
-      </c>
-      <c r="G4" t="str">
-        <v>7.9</v>
-      </c>
-      <c r="H4" t="str">
-        <v>11.2</v>
-      </c>
-      <c r="I4" t="str">
-        <v>17.2</v>
-      </c>
-      <c r="J4" t="str">
-        <v>36.7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>mih</v>
-      </c>
-      <c r="B5" t="str">
-        <v>2.3</v>
-      </c>
-      <c r="C5" t="str">
-        <v>3.7</v>
-      </c>
-      <c r="D5" t="str">
-        <v>4.8</v>
-      </c>
-      <c r="E5" t="str">
-        <v>13.4</v>
-      </c>
-      <c r="F5" t="str">
-        <v>15.9</v>
-      </c>
-      <c r="G5" t="str">
-        <v>17.7</v>
-      </c>
-      <c r="H5" t="str">
-        <v>38.7</v>
-      </c>
-      <c r="I5" t="str">
-        <v>57.0</v>
-      </c>
-      <c r="J5" t="str">
-        <v>70.6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>bktree</v>
-      </c>
-      <c r="B6" t="str">
-        <v>0.1</v>
-      </c>
-      <c r="C6" t="str">
-        <v>0.6</v>
-      </c>
-      <c r="D6" t="str">
-        <v>2.0</v>
-      </c>
-      <c r="E6" t="str">
-        <v>4.8</v>
-      </c>
-      <c r="F6" t="str">
-        <v>9.3</v>
-      </c>
-      <c r="G6" t="str">
-        <v>16.1</v>
-      </c>
-      <c r="H6" t="str">
-        <v>23.3</v>
-      </c>
-      <c r="I6" t="str">
-        <v>33.1</v>
-      </c>
-      <c r="J6" t="str">
-        <v>44.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -547,369 +386,1068 @@
       <c r="F1" t="str">
         <v>gist1m</v>
       </c>
+      <c r="L1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v/>
+      </c>
+      <c r="B2" t="str">
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <v>2</v>
+      </c>
+      <c r="E2" t="str">
+        <v>3</v>
+      </c>
+      <c r="F2" t="str">
+        <v>4</v>
+      </c>
+      <c r="G2" t="str">
+        <v>5</v>
+      </c>
+      <c r="H2" t="str">
+        <v>6</v>
+      </c>
+      <c r="I2" t="str">
+        <v>7</v>
+      </c>
+      <c r="J2" t="str">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <v>bf</v>
       </c>
       <c r="B3" t="str">
-        <v>106.4</v>
+        <v>54.3</v>
+      </c>
+      <c r="C3" t="str">
+        <v>55.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>greddy</v>
+        <v>gph</v>
       </c>
       <c r="B4" t="str">
-        <v>pv_num</v>
+        <v>0.4</v>
       </c>
       <c r="C4" t="str">
-        <v>10</v>
+        <v>1.3</v>
       </c>
       <c r="D4" t="str">
-        <v>50</v>
+        <v>1.9</v>
       </c>
       <c r="E4" t="str">
-        <v>100</v>
+        <v>4.0</v>
       </c>
       <c r="F4" t="str">
-        <v>200</v>
+        <v>5.2</v>
       </c>
       <c r="G4" t="str">
-        <v>500</v>
+        <v>7.9</v>
       </c>
       <c r="H4" t="str">
-        <v>1000</v>
+        <v>11.2</v>
       </c>
       <c r="I4" t="str">
-        <v>2000</v>
+        <v>17.2</v>
       </c>
       <c r="J4" t="str">
-        <v>3000</v>
-      </c>
-      <c r="K4" t="str">
-        <v>5000</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <v>mih</v>
+      </c>
       <c r="B5" t="str">
-        <v>time</v>
+        <v>2.3</v>
       </c>
       <c r="C5" t="str">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="D5" t="str">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="E5" t="str">
-        <v>2.3</v>
+        <v>13.4</v>
       </c>
       <c r="F5" t="str">
-        <v>3.1</v>
+        <v>15.9</v>
       </c>
       <c r="G5" t="str">
-        <v>6.8</v>
+        <v>17.7</v>
       </c>
       <c r="H5" t="str">
-        <v>14.7</v>
+        <v>38.7</v>
       </c>
       <c r="I5" t="str">
-        <v>47.3</v>
+        <v>57.0</v>
       </c>
       <c r="J5" t="str">
-        <v>96.2</v>
-      </c>
-      <c r="K5" t="str">
-        <v>128.9</v>
+        <v>70.6</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <v>bktree</v>
+      </c>
       <c r="B6" t="str">
-        <v>recall</v>
+        <v>0.1</v>
       </c>
       <c r="C6" t="str">
-        <v>0.203</v>
+        <v>0.6</v>
       </c>
       <c r="D6" t="str">
-        <v>0.34</v>
+        <v>2.0</v>
       </c>
       <c r="E6" t="str">
-        <v>0.436</v>
+        <v>4.8</v>
       </c>
       <c r="F6" t="str">
-        <v>0.54</v>
+        <v>9.3</v>
       </c>
       <c r="G6" t="str">
-        <v>0.72</v>
+        <v>16.1</v>
       </c>
       <c r="H6" t="str">
-        <v>0.836</v>
+        <v>23.3</v>
       </c>
       <c r="I6" t="str">
-        <v>0.925</v>
+        <v>33.1</v>
       </c>
       <c r="J6" t="str">
-        <v>0.962</v>
-      </c>
-      <c r="K6" t="str">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>mih</v>
-      </c>
-      <c r="C7" t="str">
-        <v>1.0</v>
-      </c>
-      <c r="D7" t="str">
-        <v>1.6</v>
-      </c>
-      <c r="E7" t="str">
-        <v>2.2</v>
-      </c>
-      <c r="F7" t="str">
-        <v>3.2</v>
-      </c>
-      <c r="G7" t="str">
-        <v>6.6</v>
-      </c>
-      <c r="H7" t="str">
-        <v>12</v>
-      </c>
-      <c r="I7" t="str">
-        <v>22.8</v>
-      </c>
-      <c r="J7" t="str">
-        <v>36</v>
-      </c>
-      <c r="K7" t="str">
-        <v>68.2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" t="str">
+        <v>sift1m</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
         <v/>
       </c>
-      <c r="C8" t="str">
-        <v>0.227</v>
-      </c>
-      <c r="D8" t="str">
-        <v>0.36</v>
-      </c>
-      <c r="E8" t="str">
-        <v>0.449</v>
-      </c>
-      <c r="F8" t="str">
-        <v>0.54</v>
-      </c>
-      <c r="G8" t="str">
-        <v>0.716</v>
-      </c>
-      <c r="H8" t="str">
-        <v>0.831</v>
-      </c>
-      <c r="I8" t="str">
-        <v>0.921</v>
-      </c>
-      <c r="J8" t="str">
-        <v>0.955</v>
-      </c>
-      <c r="K8" t="str">
-        <v>0.986</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>vector</v>
-      </c>
-      <c r="B9" t="str">
-        <v>probes</v>
-      </c>
-      <c r="C9" t="str">
+      <c r="B11" t="str">
+        <v>0</v>
+      </c>
+      <c r="C11" t="str">
         <v>1</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D11" t="str">
+        <v>2</v>
+      </c>
+      <c r="E11" t="str">
+        <v>3</v>
+      </c>
+      <c r="F11" t="str">
+        <v>4</v>
+      </c>
+      <c r="G11" t="str">
         <v>5</v>
       </c>
-      <c r="E9" t="str">
-        <v>10</v>
-      </c>
-      <c r="F9" t="str">
-        <v>20</v>
-      </c>
-      <c r="G9" t="str">
-        <v>50</v>
-      </c>
-      <c r="H9" t="str">
-        <v>100</v>
-      </c>
-      <c r="I9" t="str">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v/>
-      </c>
-      <c r="C10" t="str">
-        <v>0.3</v>
-      </c>
-      <c r="D10" t="str">
-        <v>1.0</v>
-      </c>
-      <c r="E10" t="str">
-        <v>1.8</v>
-      </c>
-      <c r="F10" t="str">
-        <v>3.5</v>
-      </c>
-      <c r="G10" t="str">
+      <c r="H11" t="str">
+        <v>6</v>
+      </c>
+      <c r="I11" t="str">
+        <v>7</v>
+      </c>
+      <c r="J11" t="str">
         <v>8</v>
-      </c>
-      <c r="H10" t="str">
-        <v>15</v>
-      </c>
-      <c r="I10" t="str">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" t="str">
-        <v>0.38</v>
-      </c>
-      <c r="D11" t="str">
-        <v>0.66</v>
-      </c>
-      <c r="E11" t="str">
-        <v>0.79</v>
-      </c>
-      <c r="F11" t="str">
-        <v>0.88</v>
-      </c>
-      <c r="G11" t="str">
-        <v>0.962</v>
-      </c>
-      <c r="H11" t="str">
-        <v>0.99</v>
-      </c>
-      <c r="I11" t="str">
-        <v>0.99</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>cube</v>
+        <v>bf</v>
       </c>
       <c r="B12" t="str">
-        <v>639</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>sp-hamming-gist</v>
+        <v>gph</v>
       </c>
       <c r="B13" t="str">
-        <v>r</v>
+        <v>0.7</v>
       </c>
       <c r="C13" t="str">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="D13" t="str">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="E13" t="str">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13" t="str">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G13" t="str">
+        <v>14.7</v>
+      </c>
+      <c r="H13" t="str">
+        <v>26.7</v>
+      </c>
+      <c r="I13" t="str">
+        <v>67.8</v>
+      </c>
+      <c r="J13" t="str">
+        <v>208.3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B14" t="str">
+        <v>2.5</v>
+      </c>
+      <c r="C14" t="str">
+        <v>4.7</v>
+      </c>
+      <c r="D14" t="str">
+        <v>8.5</v>
+      </c>
+      <c r="E14" t="str">
+        <v>14</v>
+      </c>
+      <c r="F14" t="str">
+        <v>22.7</v>
+      </c>
+      <c r="G14" t="str">
+        <v>40.2</v>
+      </c>
+      <c r="H14" t="str">
+        <v>69.7</v>
+      </c>
+      <c r="I14" t="str">
+        <v>111.8</v>
+      </c>
+      <c r="J14" t="str">
+        <v>192.3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>bktree</v>
+      </c>
+      <c r="B15" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="C15" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="D15" t="str">
+        <v>1.7</v>
+      </c>
+      <c r="E15" t="str">
         <v>4</v>
       </c>
-      <c r="H13" t="str">
-        <v>5</v>
-      </c>
-      <c r="I13" t="str">
-        <v>6</v>
-      </c>
-      <c r="J13" t="str">
-        <v>7</v>
-      </c>
-      <c r="K13" t="str">
-        <v>8</v>
-      </c>
-      <c r="L13" t="str">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" t="str">
-        <v>0.03</v>
-      </c>
-      <c r="D14" t="str">
-        <v>0.145</v>
-      </c>
-      <c r="E14" t="str">
-        <v>0.641</v>
-      </c>
-      <c r="F14" t="str">
-        <v>2.2</v>
-      </c>
-      <c r="G14" t="str">
-        <v>6.0</v>
-      </c>
-      <c r="H14" t="str">
-        <v>13.7</v>
-      </c>
-      <c r="I14" t="str">
-        <v>26.7</v>
-      </c>
-      <c r="J14" t="str">
-        <v>46.4</v>
-      </c>
-      <c r="K14" t="str">
-        <v>74</v>
-      </c>
-      <c r="L14" t="str">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" t="str">
-        <v>0.113</v>
-      </c>
-      <c r="D15" t="str">
-        <v>0.118</v>
-      </c>
-      <c r="E15" t="str">
-        <v>0.132</v>
-      </c>
       <c r="F15" t="str">
-        <v>0.145</v>
+        <v>7.3</v>
       </c>
       <c r="G15" t="str">
-        <v>0.162</v>
+        <v>12.5</v>
       </c>
       <c r="H15" t="str">
-        <v>0.185</v>
+        <v>18.5</v>
       </c>
       <c r="I15" t="str">
-        <v>0.223</v>
+        <v>24.4</v>
       </c>
       <c r="J15" t="str">
-        <v>0.279</v>
-      </c>
-      <c r="K15" t="str">
-        <v>0.34</v>
-      </c>
-      <c r="L15" t="str">
-        <v>0.428</v>
+        <v>30.9</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:L15"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="F1" t="str">
+        <v>gist1m</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B2" t="str">
+        <v>106.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>greddy</v>
+      </c>
+      <c r="B3" t="str">
+        <v>pv_num</v>
+      </c>
+      <c r="C3" t="str">
+        <v>10</v>
+      </c>
+      <c r="D3" t="str">
+        <v>50</v>
+      </c>
+      <c r="E3" t="str">
+        <v>100</v>
+      </c>
+      <c r="F3" t="str">
+        <v>200</v>
+      </c>
+      <c r="G3" t="str">
+        <v>500</v>
+      </c>
+      <c r="H3" t="str">
+        <v>1000</v>
+      </c>
+      <c r="I3" t="str">
+        <v>2000</v>
+      </c>
+      <c r="J3" t="str">
+        <v>3000</v>
+      </c>
+      <c r="K3" t="str">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="str">
+        <v>time</v>
+      </c>
+      <c r="C4" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1.9</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2.3</v>
+      </c>
+      <c r="F4" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="G4" t="str">
+        <v>6.8</v>
+      </c>
+      <c r="H4" t="str">
+        <v>14.7</v>
+      </c>
+      <c r="I4" t="str">
+        <v>47.3</v>
+      </c>
+      <c r="J4" t="str">
+        <v>96.2</v>
+      </c>
+      <c r="K4" t="str">
+        <v>128.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C5" t="str">
+        <v>0.203</v>
+      </c>
+      <c r="D5" t="str">
+        <v>0.34</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0.436</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0.54</v>
+      </c>
+      <c r="G5" t="str">
+        <v>0.72</v>
+      </c>
+      <c r="H5" t="str">
+        <v>0.836</v>
+      </c>
+      <c r="I5" t="str">
+        <v>0.925</v>
+      </c>
+      <c r="J5" t="str">
+        <v>0.962</v>
+      </c>
+      <c r="K5" t="str">
+        <v>0.988</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>mih</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2.2</v>
+      </c>
+      <c r="F6" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="G6" t="str">
+        <v>6.6</v>
+      </c>
+      <c r="H6" t="str">
+        <v>12</v>
+      </c>
+      <c r="I6" t="str">
+        <v>22.8</v>
+      </c>
+      <c r="J6" t="str">
+        <v>36</v>
+      </c>
+      <c r="K6" t="str">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v>0.227</v>
+      </c>
+      <c r="D7" t="str">
+        <v>0.36</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0.449</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0.54</v>
+      </c>
+      <c r="G7" t="str">
+        <v>0.716</v>
+      </c>
+      <c r="H7" t="str">
+        <v>0.831</v>
+      </c>
+      <c r="I7" t="str">
+        <v>0.921</v>
+      </c>
+      <c r="J7" t="str">
+        <v>0.955</v>
+      </c>
+      <c r="K7" t="str">
+        <v>0.986</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>vector</v>
+      </c>
+      <c r="B8" t="str">
+        <v>probes</v>
+      </c>
+      <c r="C8" t="str">
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <v>5</v>
+      </c>
+      <c r="E8" t="str">
+        <v>10</v>
+      </c>
+      <c r="F8" t="str">
+        <v>20</v>
+      </c>
+      <c r="G8" t="str">
+        <v>50</v>
+      </c>
+      <c r="H8" t="str">
+        <v>100</v>
+      </c>
+      <c r="I8" t="str">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="D9" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="E9" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="F9" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="G9" t="str">
+        <v>8</v>
+      </c>
+      <c r="H9" t="str">
+        <v>15</v>
+      </c>
+      <c r="I9" t="str">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="str">
+        <v>0.38</v>
+      </c>
+      <c r="D10" t="str">
+        <v>0.66</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0.79</v>
+      </c>
+      <c r="F10" t="str">
+        <v>0.88</v>
+      </c>
+      <c r="G10" t="str">
+        <v>0.962</v>
+      </c>
+      <c r="H10" t="str">
+        <v>0.99</v>
+      </c>
+      <c r="I10" t="str">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>cube</v>
+      </c>
+      <c r="B11" t="str">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>sp-hamming-gist</v>
+      </c>
+      <c r="B12" t="str">
+        <v>r</v>
+      </c>
+      <c r="C12" t="str">
+        <v>0</v>
+      </c>
+      <c r="D12" t="str">
+        <v>1</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2</v>
+      </c>
+      <c r="F12" t="str">
+        <v>3</v>
+      </c>
+      <c r="G12" t="str">
+        <v>4</v>
+      </c>
+      <c r="H12" t="str">
+        <v>5</v>
+      </c>
+      <c r="I12" t="str">
+        <v>6</v>
+      </c>
+      <c r="J12" t="str">
+        <v>7</v>
+      </c>
+      <c r="K12" t="str">
+        <v>8</v>
+      </c>
+      <c r="L12" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>0.03</v>
+      </c>
+      <c r="D13" t="str">
+        <v>0.145</v>
+      </c>
+      <c r="E13" t="str">
+        <v>0.641</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2.2</v>
+      </c>
+      <c r="G13" t="str">
+        <v>6.0</v>
+      </c>
+      <c r="H13" t="str">
+        <v>13.7</v>
+      </c>
+      <c r="I13" t="str">
+        <v>26.7</v>
+      </c>
+      <c r="J13" t="str">
+        <v>46.4</v>
+      </c>
+      <c r="K13" t="str">
+        <v>74</v>
+      </c>
+      <c r="L13" t="str">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>0.113</v>
+      </c>
+      <c r="D14" t="str">
+        <v>0.118</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0.132</v>
+      </c>
+      <c r="F14" t="str">
+        <v>0.145</v>
+      </c>
+      <c r="G14" t="str">
+        <v>0.162</v>
+      </c>
+      <c r="H14" t="str">
+        <v>0.185</v>
+      </c>
+      <c r="I14" t="str">
+        <v>0.223</v>
+      </c>
+      <c r="J14" t="str">
+        <v>0.279</v>
+      </c>
+      <c r="K14" t="str">
+        <v>0.34</v>
+      </c>
+      <c r="L14" t="str">
+        <v>0.428</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="str">
+        <v>sift1m</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B18" t="str">
+        <v>time</v>
+      </c>
+      <c r="C18" t="str">
+        <v>106.6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>greddy</v>
+      </c>
+      <c r="B19" t="str">
+        <v>pv_num</v>
+      </c>
+      <c r="C19" t="str">
+        <v>10</v>
+      </c>
+      <c r="D19" t="str">
+        <v>50</v>
+      </c>
+      <c r="E19" t="str">
+        <v>100</v>
+      </c>
+      <c r="F19" t="str">
+        <v>200</v>
+      </c>
+      <c r="G19" t="str">
+        <v>500</v>
+      </c>
+      <c r="H19" t="str">
+        <v>1000</v>
+      </c>
+      <c r="I19" t="str">
+        <v>2000</v>
+      </c>
+      <c r="J19" t="str">
+        <v>3000</v>
+      </c>
+      <c r="K19" t="str">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="str">
+        <v>time</v>
+      </c>
+      <c r="C20" t="str">
+        <v>0.84</v>
+      </c>
+      <c r="D20" t="str">
+        <v>1.7</v>
+      </c>
+      <c r="E20" t="str">
+        <v>2.63</v>
+      </c>
+      <c r="F20" t="str">
+        <v>3.6</v>
+      </c>
+      <c r="G20" t="str">
+        <v>6.9</v>
+      </c>
+      <c r="H20" t="str">
+        <v>16.6</v>
+      </c>
+      <c r="I20" t="str">
+        <v>44.6</v>
+      </c>
+      <c r="J20" t="str">
+        <v>82.8</v>
+      </c>
+      <c r="K20" t="str">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C21" t="str">
+        <v>0.311</v>
+      </c>
+      <c r="D21" t="str">
+        <v>0.484</v>
+      </c>
+      <c r="E21" t="str">
+        <v>0.589</v>
+      </c>
+      <c r="F21" t="str">
+        <v>0.701</v>
+      </c>
+      <c r="G21" t="str">
+        <v>0.847</v>
+      </c>
+      <c r="H21" t="str">
+        <v>0.926</v>
+      </c>
+      <c r="I21" t="str">
+        <v>0.97</v>
+      </c>
+      <c r="J21" t="str">
+        <v>0.987</v>
+      </c>
+      <c r="K21" t="str">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B22" t="str">
+        <v>time</v>
+      </c>
+      <c r="C22" t="str">
+        <v>0.88</v>
+      </c>
+      <c r="D22" t="str">
+        <v>1.57</v>
+      </c>
+      <c r="E22" t="str">
+        <v>2.1</v>
+      </c>
+      <c r="F22" t="str">
+        <v>2.98</v>
+      </c>
+      <c r="G22" t="str">
+        <v>5.15</v>
+      </c>
+      <c r="H22" t="str">
+        <v>8.4</v>
+      </c>
+      <c r="I22" t="str">
+        <v>14.8</v>
+      </c>
+      <c r="J22" t="str">
+        <v>20.9</v>
+      </c>
+      <c r="K22" t="str">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C23" t="str">
+        <v>0.332</v>
+      </c>
+      <c r="D23" t="str">
+        <v>0.491</v>
+      </c>
+      <c r="E23" t="str">
+        <v>0.590</v>
+      </c>
+      <c r="F23" t="str">
+        <v>0.704</v>
+      </c>
+      <c r="G23" t="str">
+        <v>0.830</v>
+      </c>
+      <c r="H23" t="str">
+        <v>0.914</v>
+      </c>
+      <c r="I23" t="str">
+        <v>0.963</v>
+      </c>
+      <c r="J23" t="str">
+        <v>0.983</v>
+      </c>
+      <c r="K23" t="str">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>vector</v>
+      </c>
+      <c r="B24" t="str">
+        <v>probes</v>
+      </c>
+      <c r="C24" t="str">
+        <v>1</v>
+      </c>
+      <c r="D24" t="str">
+        <v>5</v>
+      </c>
+      <c r="E24" t="str">
+        <v>10</v>
+      </c>
+      <c r="F24" t="str">
+        <v>20</v>
+      </c>
+      <c r="G24" t="str">
+        <v>50</v>
+      </c>
+      <c r="H24" t="str">
+        <v>100</v>
+      </c>
+      <c r="I24" t="str">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v>time</v>
+      </c>
+      <c r="C25" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="D25" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="E25" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="F25" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="G25" t="str">
+        <v>9.8</v>
+      </c>
+      <c r="H25" t="str">
+        <v>18.8</v>
+      </c>
+      <c r="I25" t="str">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C26" t="str">
+        <v>0.535</v>
+      </c>
+      <c r="D26" t="str">
+        <v>0.857</v>
+      </c>
+      <c r="E26" t="str">
+        <v>0.936</v>
+      </c>
+      <c r="F26" t="str">
+        <v>0.978</v>
+      </c>
+      <c r="G26" t="str">
+        <v>0.997</v>
+      </c>
+      <c r="H26" t="str">
+        <v>1</v>
+      </c>
+      <c r="I26" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>cube</v>
+      </c>
+      <c r="B27" t="str">
+        <v>time</v>
+      </c>
+      <c r="C27" t="str">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>sp-hamming-gist</v>
+      </c>
+      <c r="B28" t="str">
+        <v>r</v>
+      </c>
+      <c r="C28" t="str">
+        <v>0</v>
+      </c>
+      <c r="D28" t="str">
+        <v>1</v>
+      </c>
+      <c r="E28" t="str">
+        <v>2</v>
+      </c>
+      <c r="F28" t="str">
+        <v>3</v>
+      </c>
+      <c r="G28" t="str">
+        <v>4</v>
+      </c>
+      <c r="H28" t="str">
+        <v>5</v>
+      </c>
+      <c r="I28" t="str">
+        <v>6</v>
+      </c>
+      <c r="J28" t="str">
+        <v>7</v>
+      </c>
+      <c r="K28" t="str">
+        <v>8</v>
+      </c>
+      <c r="L28" t="str">
+        <v>9</v>
+      </c>
+      <c r="M28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="str">
+        <v>time</v>
+      </c>
+      <c r="C29" t="str">
+        <v>0.03</v>
+      </c>
+      <c r="D29" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="E29" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="F29" t="str">
+        <v>2.0</v>
+      </c>
+      <c r="G29" t="str">
+        <v>5.3</v>
+      </c>
+      <c r="H29" t="str">
+        <v>11.8</v>
+      </c>
+      <c r="I29" t="str">
+        <v>22.4</v>
+      </c>
+      <c r="J29" t="str">
+        <v>37.9</v>
+      </c>
+      <c r="K29" t="str">
+        <v>58.9</v>
+      </c>
+      <c r="L29" t="str">
+        <v>85.7</v>
+      </c>
+      <c r="M29" t="str">
+        <v>118.3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C30" t="str">
+        <v>0.11</v>
+      </c>
+      <c r="D30" t="str">
+        <v>0.127</v>
+      </c>
+      <c r="E30" t="str">
+        <v>0.163</v>
+      </c>
+      <c r="F30" t="str">
+        <v>0.235</v>
+      </c>
+      <c r="G30" t="str">
+        <v>0.337</v>
+      </c>
+      <c r="H30" t="str">
+        <v>0.483</v>
+      </c>
+      <c r="I30" t="str">
+        <v>0.633</v>
+      </c>
+      <c r="J30" t="str">
+        <v>0.772</v>
+      </c>
+      <c r="K30" t="str">
+        <v>0.872</v>
+      </c>
+      <c r="L30" t="str">
+        <v>0.926</v>
+      </c>
+      <c r="M30" t="str">
+        <v>0.972</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:M30"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/experiment/result.xlsx
+++ b/experiment/result.xlsx
@@ -377,7 +377,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="F1" t="str">
+        <v>gist1m_64</v>
+      </c>
+      <c r="L1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v/>
+      </c>
+      <c r="B2" t="str">
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <v>2</v>
+      </c>
+      <c r="E2" t="str">
+        <v>3</v>
+      </c>
+      <c r="F2" t="str">
+        <v>4</v>
+      </c>
+      <c r="G2" t="str">
+        <v>5</v>
+      </c>
+      <c r="H2" t="str">
+        <v>6</v>
+      </c>
+      <c r="I2" t="str">
+        <v>7</v>
+      </c>
+      <c r="J2" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B3" t="str">
+        <v>54.3</v>
+      </c>
+      <c r="C3" t="str">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>gph</v>
+      </c>
+      <c r="B4" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="C4" t="str">
+        <v>1.3</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1.9</v>
+      </c>
+      <c r="E4" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="F4" t="str">
+        <v>5.2</v>
+      </c>
+      <c r="G4" t="str">
+        <v>7.9</v>
+      </c>
+      <c r="H4" t="str">
+        <v>11.2</v>
+      </c>
+      <c r="I4" t="str">
+        <v>17.2</v>
+      </c>
+      <c r="J4" t="str">
+        <v>36.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2.3</v>
+      </c>
+      <c r="C5" t="str">
+        <v>3.7</v>
+      </c>
+      <c r="D5" t="str">
+        <v>4.8</v>
+      </c>
+      <c r="E5" t="str">
+        <v>13.4</v>
+      </c>
+      <c r="F5" t="str">
+        <v>15.9</v>
+      </c>
+      <c r="G5" t="str">
+        <v>17.7</v>
+      </c>
+      <c r="H5" t="str">
+        <v>38.7</v>
+      </c>
+      <c r="I5" t="str">
+        <v>57.0</v>
+      </c>
+      <c r="J5" t="str">
+        <v>70.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>bktree</v>
+      </c>
+      <c r="B6" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="C6" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2.0</v>
+      </c>
+      <c r="E6" t="str">
+        <v>4.8</v>
+      </c>
+      <c r="F6" t="str">
+        <v>9.3</v>
+      </c>
+      <c r="G6" t="str">
+        <v>16.1</v>
+      </c>
+      <c r="H6" t="str">
+        <v>23.3</v>
+      </c>
+      <c r="I6" t="str">
+        <v>33.1</v>
+      </c>
+      <c r="J6" t="str">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" t="str">
+        <v>sift1m_64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v>0</v>
+      </c>
+      <c r="C11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2</v>
+      </c>
+      <c r="E11" t="str">
+        <v>3</v>
+      </c>
+      <c r="F11" t="str">
+        <v>4</v>
+      </c>
+      <c r="G11" t="str">
+        <v>5</v>
+      </c>
+      <c r="H11" t="str">
+        <v>6</v>
+      </c>
+      <c r="I11" t="str">
+        <v>7</v>
+      </c>
+      <c r="J11" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B12" t="str">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>gph</v>
+      </c>
+      <c r="B13" t="str">
+        <v>0.7</v>
+      </c>
+      <c r="C13" t="str">
+        <v>1.4</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2.6</v>
+      </c>
+      <c r="E13" t="str">
+        <v>5</v>
+      </c>
+      <c r="F13" t="str">
+        <v>8</v>
+      </c>
+      <c r="G13" t="str">
+        <v>14.7</v>
+      </c>
+      <c r="H13" t="str">
+        <v>26.7</v>
+      </c>
+      <c r="I13" t="str">
+        <v>67.8</v>
+      </c>
+      <c r="J13" t="str">
+        <v>208.3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B14" t="str">
+        <v>2.5</v>
+      </c>
+      <c r="C14" t="str">
+        <v>4.7</v>
+      </c>
+      <c r="D14" t="str">
+        <v>8.5</v>
+      </c>
+      <c r="E14" t="str">
+        <v>14</v>
+      </c>
+      <c r="F14" t="str">
+        <v>22.7</v>
+      </c>
+      <c r="G14" t="str">
+        <v>40.2</v>
+      </c>
+      <c r="H14" t="str">
+        <v>69.7</v>
+      </c>
+      <c r="I14" t="str">
+        <v>111.8</v>
+      </c>
+      <c r="J14" t="str">
+        <v>192.3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>bktree</v>
+      </c>
+      <c r="B15" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="C15" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="D15" t="str">
+        <v>1.7</v>
+      </c>
+      <c r="E15" t="str">
+        <v>4</v>
+      </c>
+      <c r="F15" t="str">
+        <v>7.3</v>
+      </c>
+      <c r="G15" t="str">
+        <v>12.5</v>
+      </c>
+      <c r="H15" t="str">
+        <v>18.5</v>
+      </c>
+      <c r="I15" t="str">
+        <v>24.4</v>
+      </c>
+      <c r="J15" t="str">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="str">
+        <v>random1m_64</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v>0</v>
+      </c>
+      <c r="C19" t="str">
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <v>2</v>
+      </c>
+      <c r="E19" t="str">
+        <v>3</v>
+      </c>
+      <c r="F19" t="str">
+        <v>4</v>
+      </c>
+      <c r="G19" t="str">
+        <v>5</v>
+      </c>
+      <c r="H19" t="str">
+        <v>6</v>
+      </c>
+      <c r="I19" t="str">
+        <v>7</v>
+      </c>
+      <c r="J19" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B20" t="str">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>gph</v>
+      </c>
+      <c r="B21" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="C21" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="D21" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="E21" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="F21" t="str">
+        <v>0.7</v>
+      </c>
+      <c r="G21" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="H21" t="str">
+        <v>2.1</v>
+      </c>
+      <c r="I21" t="str">
+        <v>2.9</v>
+      </c>
+      <c r="J21" t="str">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B22" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="C22" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="D22" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="E22" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="F22" t="str">
+        <v>2.0</v>
+      </c>
+      <c r="G22" t="str">
+        <v>2.9</v>
+      </c>
+      <c r="H22" t="str">
+        <v>7.6</v>
+      </c>
+      <c r="I22" t="str">
+        <v>13.7</v>
+      </c>
+      <c r="J22" t="str">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>bktree</v>
+      </c>
+      <c r="B23" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="C23" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="D23" t="str">
+        <v>2.9</v>
+      </c>
+      <c r="E23" t="str">
+        <v>7.8</v>
+      </c>
+      <c r="F23" t="str">
+        <v>16.1</v>
+      </c>
+      <c r="G23" t="str">
+        <v>27.6</v>
+      </c>
+      <c r="H23" t="str">
+        <v>41.3</v>
+      </c>
+      <c r="I23" t="str">
+        <v>56</v>
+      </c>
+      <c r="J23" t="str">
+        <v>70.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:L23"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -386,308 +829,6 @@
       <c r="F1" t="str">
         <v>gist1m</v>
       </c>
-      <c r="L1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v>0</v>
-      </c>
-      <c r="C2" t="str">
-        <v>1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>2</v>
-      </c>
-      <c r="E2" t="str">
-        <v>3</v>
-      </c>
-      <c r="F2" t="str">
-        <v>4</v>
-      </c>
-      <c r="G2" t="str">
-        <v>5</v>
-      </c>
-      <c r="H2" t="str">
-        <v>6</v>
-      </c>
-      <c r="I2" t="str">
-        <v>7</v>
-      </c>
-      <c r="J2" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>bf</v>
-      </c>
-      <c r="B3" t="str">
-        <v>54.3</v>
-      </c>
-      <c r="C3" t="str">
-        <v>55.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>gph</v>
-      </c>
-      <c r="B4" t="str">
-        <v>0.4</v>
-      </c>
-      <c r="C4" t="str">
-        <v>1.3</v>
-      </c>
-      <c r="D4" t="str">
-        <v>1.9</v>
-      </c>
-      <c r="E4" t="str">
-        <v>4.0</v>
-      </c>
-      <c r="F4" t="str">
-        <v>5.2</v>
-      </c>
-      <c r="G4" t="str">
-        <v>7.9</v>
-      </c>
-      <c r="H4" t="str">
-        <v>11.2</v>
-      </c>
-      <c r="I4" t="str">
-        <v>17.2</v>
-      </c>
-      <c r="J4" t="str">
-        <v>36.7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>mih</v>
-      </c>
-      <c r="B5" t="str">
-        <v>2.3</v>
-      </c>
-      <c r="C5" t="str">
-        <v>3.7</v>
-      </c>
-      <c r="D5" t="str">
-        <v>4.8</v>
-      </c>
-      <c r="E5" t="str">
-        <v>13.4</v>
-      </c>
-      <c r="F5" t="str">
-        <v>15.9</v>
-      </c>
-      <c r="G5" t="str">
-        <v>17.7</v>
-      </c>
-      <c r="H5" t="str">
-        <v>38.7</v>
-      </c>
-      <c r="I5" t="str">
-        <v>57.0</v>
-      </c>
-      <c r="J5" t="str">
-        <v>70.6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>bktree</v>
-      </c>
-      <c r="B6" t="str">
-        <v>0.1</v>
-      </c>
-      <c r="C6" t="str">
-        <v>0.6</v>
-      </c>
-      <c r="D6" t="str">
-        <v>2.0</v>
-      </c>
-      <c r="E6" t="str">
-        <v>4.8</v>
-      </c>
-      <c r="F6" t="str">
-        <v>9.3</v>
-      </c>
-      <c r="G6" t="str">
-        <v>16.1</v>
-      </c>
-      <c r="H6" t="str">
-        <v>23.3</v>
-      </c>
-      <c r="I6" t="str">
-        <v>33.1</v>
-      </c>
-      <c r="J6" t="str">
-        <v>44.1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="F10" t="str">
-        <v>sift1m</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v/>
-      </c>
-      <c r="B11" t="str">
-        <v>0</v>
-      </c>
-      <c r="C11" t="str">
-        <v>1</v>
-      </c>
-      <c r="D11" t="str">
-        <v>2</v>
-      </c>
-      <c r="E11" t="str">
-        <v>3</v>
-      </c>
-      <c r="F11" t="str">
-        <v>4</v>
-      </c>
-      <c r="G11" t="str">
-        <v>5</v>
-      </c>
-      <c r="H11" t="str">
-        <v>6</v>
-      </c>
-      <c r="I11" t="str">
-        <v>7</v>
-      </c>
-      <c r="J11" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>bf</v>
-      </c>
-      <c r="B12" t="str">
-        <v>54.1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>gph</v>
-      </c>
-      <c r="B13" t="str">
-        <v>0.7</v>
-      </c>
-      <c r="C13" t="str">
-        <v>1.4</v>
-      </c>
-      <c r="D13" t="str">
-        <v>2.6</v>
-      </c>
-      <c r="E13" t="str">
-        <v>5</v>
-      </c>
-      <c r="F13" t="str">
-        <v>8</v>
-      </c>
-      <c r="G13" t="str">
-        <v>14.7</v>
-      </c>
-      <c r="H13" t="str">
-        <v>26.7</v>
-      </c>
-      <c r="I13" t="str">
-        <v>67.8</v>
-      </c>
-      <c r="J13" t="str">
-        <v>208.3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>mih</v>
-      </c>
-      <c r="B14" t="str">
-        <v>2.5</v>
-      </c>
-      <c r="C14" t="str">
-        <v>4.7</v>
-      </c>
-      <c r="D14" t="str">
-        <v>8.5</v>
-      </c>
-      <c r="E14" t="str">
-        <v>14</v>
-      </c>
-      <c r="F14" t="str">
-        <v>22.7</v>
-      </c>
-      <c r="G14" t="str">
-        <v>40.2</v>
-      </c>
-      <c r="H14" t="str">
-        <v>69.7</v>
-      </c>
-      <c r="I14" t="str">
-        <v>111.8</v>
-      </c>
-      <c r="J14" t="str">
-        <v>192.3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>bktree</v>
-      </c>
-      <c r="B15" t="str">
-        <v>0.1</v>
-      </c>
-      <c r="C15" t="str">
-        <v>0.6</v>
-      </c>
-      <c r="D15" t="str">
-        <v>1.7</v>
-      </c>
-      <c r="E15" t="str">
-        <v>4</v>
-      </c>
-      <c r="F15" t="str">
-        <v>7.3</v>
-      </c>
-      <c r="G15" t="str">
-        <v>12.5</v>
-      </c>
-      <c r="H15" t="str">
-        <v>18.5</v>
-      </c>
-      <c r="I15" t="str">
-        <v>24.4</v>
-      </c>
-      <c r="J15" t="str">
-        <v>30.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L15"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="F1" t="str">
-        <v>gist1m</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -1445,9 +1586,406 @@
         <v>0.972</v>
       </c>
     </row>
+    <row r="33">
+      <c r="F33" t="str">
+        <v>random1m</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B34" t="str">
+        <v>time</v>
+      </c>
+      <c r="C34" t="str">
+        <v>106.6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>greddy</v>
+      </c>
+      <c r="B35" t="str">
+        <v>pv_num</v>
+      </c>
+      <c r="C35" t="str">
+        <v>10</v>
+      </c>
+      <c r="D35" t="str">
+        <v>50</v>
+      </c>
+      <c r="E35" t="str">
+        <v>100</v>
+      </c>
+      <c r="F35" t="str">
+        <v>200</v>
+      </c>
+      <c r="G35" t="str">
+        <v>500</v>
+      </c>
+      <c r="H35" t="str">
+        <v>1000</v>
+      </c>
+      <c r="I35" t="str">
+        <v>2000</v>
+      </c>
+      <c r="J35" t="str">
+        <v>3000</v>
+      </c>
+      <c r="K35" t="str">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="str">
+        <v>time</v>
+      </c>
+      <c r="C36" t="str">
+        <v>0.7</v>
+      </c>
+      <c r="D36" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="E36" t="str">
+        <v>1.7</v>
+      </c>
+      <c r="F36" t="str">
+        <v>2.2</v>
+      </c>
+      <c r="G36" t="str">
+        <v>7.8</v>
+      </c>
+      <c r="H36" t="str">
+        <v>12.8</v>
+      </c>
+      <c r="I36" t="str">
+        <v>122.4</v>
+      </c>
+      <c r="J36" t="str">
+        <v>126.1</v>
+      </c>
+      <c r="K36" t="str">
+        <v>168.8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C37" t="str">
+        <v>0.127</v>
+      </c>
+      <c r="D37" t="str">
+        <v>0.22</v>
+      </c>
+      <c r="E37" t="str">
+        <v>0.24</v>
+      </c>
+      <c r="F37" t="str">
+        <v>0.332</v>
+      </c>
+      <c r="G37" t="str">
+        <v>0.512</v>
+      </c>
+      <c r="H37" t="str">
+        <v>0.647</v>
+      </c>
+      <c r="I37" t="str">
+        <v>0.8747</v>
+      </c>
+      <c r="J37" t="str">
+        <v>0.8797</v>
+      </c>
+      <c r="K37" t="str">
+        <v>0.954</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B38" t="str">
+        <v>time</v>
+      </c>
+      <c r="C38" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="D38" t="str">
+        <v>1.4</v>
+      </c>
+      <c r="E38" t="str">
+        <v>2.3</v>
+      </c>
+      <c r="F38" t="str">
+        <v>3.0</v>
+      </c>
+      <c r="G38" t="str">
+        <v>7.9</v>
+      </c>
+      <c r="H38" t="str">
+        <v>13.8</v>
+      </c>
+      <c r="I38" t="str">
+        <v>56.1</v>
+      </c>
+      <c r="J38" t="str">
+        <v>57.4</v>
+      </c>
+      <c r="K38" t="str">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C39" t="str">
+        <v>0.131</v>
+      </c>
+      <c r="D39" t="str">
+        <v>0.21</v>
+      </c>
+      <c r="E39" t="str">
+        <v>0.282</v>
+      </c>
+      <c r="F39" t="str">
+        <v>0.349</v>
+      </c>
+      <c r="G39" t="str">
+        <v>0.497</v>
+      </c>
+      <c r="H39" t="str">
+        <v>0.641</v>
+      </c>
+      <c r="I39" t="str">
+        <v>87.8</v>
+      </c>
+      <c r="J39" t="str">
+        <v>0.8829</v>
+      </c>
+      <c r="K39" t="str">
+        <v>0.956</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>vector</v>
+      </c>
+      <c r="B40" t="str">
+        <v>probes</v>
+      </c>
+      <c r="C40" t="str">
+        <v>1</v>
+      </c>
+      <c r="D40" t="str">
+        <v>5</v>
+      </c>
+      <c r="E40" t="str">
+        <v>10</v>
+      </c>
+      <c r="F40" t="str">
+        <v>20</v>
+      </c>
+      <c r="G40" t="str">
+        <v>50</v>
+      </c>
+      <c r="H40" t="str">
+        <v>100</v>
+      </c>
+      <c r="I40" t="str">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v/>
+      </c>
+      <c r="B41" t="str">
+        <v>time</v>
+      </c>
+      <c r="C41" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="D41" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="E41" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="F41" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="G41" t="str">
+        <v>10.1</v>
+      </c>
+      <c r="H41" t="str">
+        <v>19.7</v>
+      </c>
+      <c r="I41" t="str">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C42" t="str">
+        <v>0.173</v>
+      </c>
+      <c r="D42" t="str">
+        <v>0.305</v>
+      </c>
+      <c r="E42" t="str">
+        <v>0.406</v>
+      </c>
+      <c r="F42" t="str">
+        <v>0.535</v>
+      </c>
+      <c r="G42" t="str">
+        <v>0.725</v>
+      </c>
+      <c r="H42" t="str">
+        <v>0.851</v>
+      </c>
+      <c r="I42" t="str">
+        <v>0.941</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>cube</v>
+      </c>
+      <c r="B43" t="str">
+        <v>time</v>
+      </c>
+      <c r="C43" t="str">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>sp-hamming-gist</v>
+      </c>
+      <c r="B44" t="str">
+        <v>r</v>
+      </c>
+      <c r="C44" t="str">
+        <v>0</v>
+      </c>
+      <c r="D44" t="str">
+        <v>1</v>
+      </c>
+      <c r="E44" t="str">
+        <v>2</v>
+      </c>
+      <c r="F44" t="str">
+        <v>3</v>
+      </c>
+      <c r="G44" t="str">
+        <v>4</v>
+      </c>
+      <c r="H44" t="str">
+        <v>5</v>
+      </c>
+      <c r="I44" t="str">
+        <v>6</v>
+      </c>
+      <c r="J44" t="str">
+        <v>7</v>
+      </c>
+      <c r="K44" t="str">
+        <v>8</v>
+      </c>
+      <c r="L44" t="str">
+        <v>9</v>
+      </c>
+      <c r="M44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="str">
+        <v>time</v>
+      </c>
+      <c r="C45" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="D45" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="E45" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="F45" t="str">
+        <v>3.9</v>
+      </c>
+      <c r="G45" t="str">
+        <v>11.5</v>
+      </c>
+      <c r="H45" t="str">
+        <v>27.1</v>
+      </c>
+      <c r="I45" t="str">
+        <v>53.8</v>
+      </c>
+      <c r="J45" t="str">
+        <v>93.5</v>
+      </c>
+      <c r="K45" t="str">
+        <v>146.8</v>
+      </c>
+      <c r="L45" t="str">
+        <v>212.9</v>
+      </c>
+      <c r="M45" t="str">
+        <v>290.1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C46" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="D46" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="E46" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="F46" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="G46" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="H46" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="I46" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="J46" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="K46" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="L46" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="M46" t="str">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M46"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/experiment/result.xlsx
+++ b/experiment/result.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -811,16 +811,157 @@
         <v>70.3</v>
       </c>
     </row>
+    <row r="26">
+      <c r="F26" t="str">
+        <v>random10m_64</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v>0</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1</v>
+      </c>
+      <c r="D27" t="str">
+        <v>2</v>
+      </c>
+      <c r="E27" t="str">
+        <v>3</v>
+      </c>
+      <c r="F27" t="str">
+        <v>4</v>
+      </c>
+      <c r="G27" t="str">
+        <v>5</v>
+      </c>
+      <c r="H27" t="str">
+        <v>6</v>
+      </c>
+      <c r="I27" t="str">
+        <v>7</v>
+      </c>
+      <c r="J27" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B28" t="str">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>gph</v>
+      </c>
+      <c r="B29" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="C29" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="D29" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="E29" t="str">
+        <v>1.3</v>
+      </c>
+      <c r="F29" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="G29" t="str">
+        <v>6.0</v>
+      </c>
+      <c r="H29" t="str">
+        <v>10.1</v>
+      </c>
+      <c r="I29" t="str">
+        <v>14.2</v>
+      </c>
+      <c r="J29" t="str">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B30" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="C30" t="str">
+        <v>1.1</v>
+      </c>
+      <c r="D30" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E30" t="str">
+        <v>4.6</v>
+      </c>
+      <c r="F30" t="str">
+        <v>9.7</v>
+      </c>
+      <c r="G30" t="str">
+        <v>14.6</v>
+      </c>
+      <c r="H30" t="str">
+        <v>41.9</v>
+      </c>
+      <c r="I30" t="str">
+        <v>82.9</v>
+      </c>
+      <c r="J30" t="str">
+        <v>122.4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>bktree</v>
+      </c>
+      <c r="B31" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="C31" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="D31" t="str">
+        <v>15.4</v>
+      </c>
+      <c r="E31" t="str">
+        <v>50.3</v>
+      </c>
+      <c r="F31" t="str">
+        <v>121.8</v>
+      </c>
+      <c r="G31" t="str">
+        <v>235</v>
+      </c>
+      <c r="H31" t="str">
+        <v>376</v>
+      </c>
+      <c r="I31" t="str">
+        <v>547</v>
+      </c>
+      <c r="J31" t="str">
+        <v>712.5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1983,9 +2124,406 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="49">
+      <c r="F49" t="str">
+        <v>random10m</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B50" t="str">
+        <v>time</v>
+      </c>
+      <c r="C50" t="str">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>greddy</v>
+      </c>
+      <c r="B51" t="str">
+        <v>pv_num</v>
+      </c>
+      <c r="C51" t="str">
+        <v>10</v>
+      </c>
+      <c r="D51" t="str">
+        <v>50</v>
+      </c>
+      <c r="E51" t="str">
+        <v>100</v>
+      </c>
+      <c r="F51" t="str">
+        <v>200</v>
+      </c>
+      <c r="G51" t="str">
+        <v>500</v>
+      </c>
+      <c r="H51" t="str">
+        <v>1000</v>
+      </c>
+      <c r="I51" t="str">
+        <v>2000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>3000</v>
+      </c>
+      <c r="K51" t="str">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="str">
+        <v>time</v>
+      </c>
+      <c r="C52" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="D52" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="E52" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="F52" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="G52" t="str">
+        <v>7.1</v>
+      </c>
+      <c r="H52" t="str">
+        <v>7.0</v>
+      </c>
+      <c r="I52" t="str">
+        <v>12.1</v>
+      </c>
+      <c r="J52" t="str">
+        <v>53.7</v>
+      </c>
+      <c r="K52" t="str">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C53" t="str">
+        <v>0.115</v>
+      </c>
+      <c r="D53" t="str">
+        <v>0.150</v>
+      </c>
+      <c r="E53" t="str">
+        <v>0.163</v>
+      </c>
+      <c r="F53" t="str">
+        <v>0.212</v>
+      </c>
+      <c r="G53" t="str">
+        <v>0.341</v>
+      </c>
+      <c r="H53" t="str">
+        <v>0.3773</v>
+      </c>
+      <c r="I53" t="str">
+        <v>0.504</v>
+      </c>
+      <c r="J53" t="str">
+        <v>0.697</v>
+      </c>
+      <c r="K53" t="str">
+        <v>0.697</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B54" t="str">
+        <v>time</v>
+      </c>
+      <c r="C54" t="str">
+        <v>2.7</v>
+      </c>
+      <c r="D54" t="str">
+        <v>3.0</v>
+      </c>
+      <c r="E54" t="str">
+        <v>2.8</v>
+      </c>
+      <c r="F54" t="str">
+        <v>2.9</v>
+      </c>
+      <c r="G54" t="str">
+        <v>6.3</v>
+      </c>
+      <c r="H54" t="str">
+        <v>10.5</v>
+      </c>
+      <c r="I54" t="str">
+        <v>15.5</v>
+      </c>
+      <c r="J54" t="str">
+        <v>43.7</v>
+      </c>
+      <c r="K54" t="str">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v/>
+      </c>
+      <c r="B55" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C55" t="str">
+        <v>0.115</v>
+      </c>
+      <c r="D55" t="str">
+        <v>0.144</v>
+      </c>
+      <c r="E55" t="str">
+        <v>0.183</v>
+      </c>
+      <c r="F55" t="str">
+        <v>0.222</v>
+      </c>
+      <c r="G55" t="str">
+        <v>0.330</v>
+      </c>
+      <c r="H55" t="str">
+        <v>0.442</v>
+      </c>
+      <c r="I55" t="str">
+        <v>0.536</v>
+      </c>
+      <c r="J55" t="str">
+        <v>0.69</v>
+      </c>
+      <c r="K55" t="str">
+        <v>0.690</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>vector</v>
+      </c>
+      <c r="B56" t="str">
+        <v>probes</v>
+      </c>
+      <c r="C56" t="str">
+        <v>1</v>
+      </c>
+      <c r="D56" t="str">
+        <v>5</v>
+      </c>
+      <c r="E56" t="str">
+        <v>10</v>
+      </c>
+      <c r="F56" t="str">
+        <v>20</v>
+      </c>
+      <c r="G56" t="str">
+        <v>50</v>
+      </c>
+      <c r="H56" t="str">
+        <v>100</v>
+      </c>
+      <c r="I56" t="str">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v/>
+      </c>
+      <c r="B57" t="str">
+        <v>time</v>
+      </c>
+      <c r="C57" t="str">
+        <v>4.6</v>
+      </c>
+      <c r="D57" t="str">
+        <v>22.2</v>
+      </c>
+      <c r="E57" t="str">
+        <v>35.8</v>
+      </c>
+      <c r="F57" t="str">
+        <v>61.7</v>
+      </c>
+      <c r="G57" t="str">
+        <v>119.4</v>
+      </c>
+      <c r="H57" t="str">
+        <v>213.5</v>
+      </c>
+      <c r="I57" t="str">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C58" t="str">
+        <v>0.206</v>
+      </c>
+      <c r="D58" t="str">
+        <v>0.372</v>
+      </c>
+      <c r="E58" t="str">
+        <v>0.473</v>
+      </c>
+      <c r="F58" t="str">
+        <v>0.596</v>
+      </c>
+      <c r="G58" t="str">
+        <v>0.772</v>
+      </c>
+      <c r="H58" t="str">
+        <v>0.8825</v>
+      </c>
+      <c r="I58" t="str">
+        <v>0.958</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>cube</v>
+      </c>
+      <c r="B59" t="str">
+        <v>time</v>
+      </c>
+      <c r="C59" t="str">
+        <v>8942</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>sp-hamming-gist</v>
+      </c>
+      <c r="B60" t="str">
+        <v>r</v>
+      </c>
+      <c r="C60" t="str">
+        <v>0</v>
+      </c>
+      <c r="D60" t="str">
+        <v>1</v>
+      </c>
+      <c r="E60" t="str">
+        <v>2</v>
+      </c>
+      <c r="F60" t="str">
+        <v>3</v>
+      </c>
+      <c r="G60" t="str">
+        <v>4</v>
+      </c>
+      <c r="H60" t="str">
+        <v>5</v>
+      </c>
+      <c r="I60" t="str">
+        <v>6</v>
+      </c>
+      <c r="J60" t="str">
+        <v>7</v>
+      </c>
+      <c r="K60" t="str">
+        <v>8</v>
+      </c>
+      <c r="L60" t="str">
+        <v>9</v>
+      </c>
+      <c r="M60" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="str">
+        <v>time</v>
+      </c>
+      <c r="C61" t="str">
+        <v>0.03</v>
+      </c>
+      <c r="D61" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="E61" t="str">
+        <v>3.4</v>
+      </c>
+      <c r="F61" t="str">
+        <v>18.8</v>
+      </c>
+      <c r="G61" t="str">
+        <v>68.8</v>
+      </c>
+      <c r="H61" t="str">
+        <v>189.1</v>
+      </c>
+      <c r="I61" t="str">
+        <v>421.2</v>
+      </c>
+      <c r="J61" t="str">
+        <v>798.2</v>
+      </c>
+      <c r="K61" t="str">
+        <v>1338</v>
+      </c>
+      <c r="L61" t="str">
+        <v>2041</v>
+      </c>
+      <c r="M61" t="str">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C62" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="D62" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="E62" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="F62" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="G62" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="H62" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="I62" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="J62" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="K62" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="L62" t="str">
+        <v>0.1032</v>
+      </c>
+      <c r="M62" t="str">
+        <v>0.117</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M62"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/experiment/result.xlsx
+++ b/experiment/result.xlsx
@@ -4,8 +4,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet3" sheetId="2" r:id="rId2"/>
-    <sheet name="sheet4" sheetId="3" r:id="rId3"/>
+    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="sheet6" sheetId="5" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -2530,6 +2532,4712 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="F1" t="str">
+        <v>gist1m_64</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v/>
+      </c>
+      <c r="B2" t="str">
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <v>2</v>
+      </c>
+      <c r="E2" t="str">
+        <v>3</v>
+      </c>
+      <c r="F2" t="str">
+        <v>4</v>
+      </c>
+      <c r="G2" t="str">
+        <v>5</v>
+      </c>
+      <c r="H2" t="str">
+        <v>6</v>
+      </c>
+      <c r="I2" t="str">
+        <v>7</v>
+      </c>
+      <c r="J2" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B3" t="str">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>gph</v>
+      </c>
+      <c r="B4" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="C4" t="str">
+        <v>0.7</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <v>1.4</v>
+      </c>
+      <c r="F4" t="str">
+        <v>2.6</v>
+      </c>
+      <c r="G4" t="str">
+        <v>2.9</v>
+      </c>
+      <c r="H4" t="str">
+        <v>5.2</v>
+      </c>
+      <c r="I4" t="str">
+        <v>13.5</v>
+      </c>
+      <c r="J4" t="str">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B5" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="C5" t="str">
+        <v>3</v>
+      </c>
+      <c r="D5" t="str">
+        <v>3</v>
+      </c>
+      <c r="E5" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="F5" t="str">
+        <v>9.8</v>
+      </c>
+      <c r="G5" t="str">
+        <v>10.3</v>
+      </c>
+      <c r="H5" t="str">
+        <v>13.9</v>
+      </c>
+      <c r="I5" t="str">
+        <v>49.4</v>
+      </c>
+      <c r="J5" t="str">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>bktree</v>
+      </c>
+      <c r="B6" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="C6" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="D6" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2</v>
+      </c>
+      <c r="F6" t="str">
+        <v>4.9</v>
+      </c>
+      <c r="G6" t="str">
+        <v>9</v>
+      </c>
+      <c r="H6" t="str">
+        <v>15.8</v>
+      </c>
+      <c r="I6" t="str">
+        <v>22.5</v>
+      </c>
+      <c r="J6" t="str">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>smlar_4</v>
+      </c>
+      <c r="B7" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="C7" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="D7" t="str">
+        <v>3.8</v>
+      </c>
+      <c r="E7" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>smlar_8</v>
+      </c>
+      <c r="B8" t="str">
+        <v>13.7</v>
+      </c>
+      <c r="C8" t="str">
+        <v>13.9</v>
+      </c>
+      <c r="D8" t="str">
+        <v>13.9</v>
+      </c>
+      <c r="E8" t="str">
+        <v>17.8</v>
+      </c>
+      <c r="F8" t="str">
+        <v>89.7</v>
+      </c>
+      <c r="G8" t="str">
+        <v>108.1</v>
+      </c>
+      <c r="H8" t="str">
+        <v>504.8</v>
+      </c>
+      <c r="I8" t="str">
+        <v>739.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" t="str">
+        <v>sift1m_64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v>0</v>
+      </c>
+      <c r="C11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2</v>
+      </c>
+      <c r="E11" t="str">
+        <v>3</v>
+      </c>
+      <c r="F11" t="str">
+        <v>4</v>
+      </c>
+      <c r="G11" t="str">
+        <v>5</v>
+      </c>
+      <c r="H11" t="str">
+        <v>6</v>
+      </c>
+      <c r="I11" t="str">
+        <v>7</v>
+      </c>
+      <c r="J11" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B12" t="str">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>gph</v>
+      </c>
+      <c r="B13" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="C13" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2</v>
+      </c>
+      <c r="E13" t="str">
+        <v>3.52</v>
+      </c>
+      <c r="F13" t="str">
+        <v>6.6</v>
+      </c>
+      <c r="G13" t="str">
+        <v>9</v>
+      </c>
+      <c r="H13" t="str">
+        <v>13.8</v>
+      </c>
+      <c r="I13" t="str">
+        <v>22.4</v>
+      </c>
+      <c r="J13" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B14" t="str">
+        <v>1.57</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2.66</v>
+      </c>
+      <c r="D14" t="str">
+        <v>6.5</v>
+      </c>
+      <c r="E14" t="str">
+        <v>11.8</v>
+      </c>
+      <c r="F14" t="str">
+        <v>18.6</v>
+      </c>
+      <c r="G14" t="str">
+        <v>25.3</v>
+      </c>
+      <c r="H14" t="str">
+        <v>39.7</v>
+      </c>
+      <c r="I14" t="str">
+        <v>64.2</v>
+      </c>
+      <c r="J14" t="str">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>bktree</v>
+      </c>
+      <c r="B15" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="C15" t="str">
+        <v>0.15</v>
+      </c>
+      <c r="D15" t="str">
+        <v>0.57</v>
+      </c>
+      <c r="E15" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="F15" t="str">
+        <v>4.2</v>
+      </c>
+      <c r="G15" t="str">
+        <v>7.7</v>
+      </c>
+      <c r="H15" t="str">
+        <v>12.8</v>
+      </c>
+      <c r="I15" t="str">
+        <v>17.8</v>
+      </c>
+      <c r="J15" t="str">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>smlar_4</v>
+      </c>
+      <c r="B16" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="C16" t="str">
+        <v>0.23</v>
+      </c>
+      <c r="D16" t="str">
+        <v>6.9</v>
+      </c>
+      <c r="E16" t="str">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>smlar_8</v>
+      </c>
+      <c r="B17" t="str">
+        <v>13.6</v>
+      </c>
+      <c r="C17" t="str">
+        <v>14.4</v>
+      </c>
+      <c r="D17" t="str">
+        <v>14.5</v>
+      </c>
+      <c r="E17" t="str">
+        <v>19.3</v>
+      </c>
+      <c r="F17" t="str">
+        <v>110.7</v>
+      </c>
+      <c r="G17" t="str">
+        <v>133.5</v>
+      </c>
+      <c r="H17" t="str">
+        <v>575.2</v>
+      </c>
+      <c r="I17" t="str">
+        <v>801.6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="str">
+        <v>random1m_64</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v>0</v>
+      </c>
+      <c r="C20" t="str">
+        <v>1</v>
+      </c>
+      <c r="D20" t="str">
+        <v>2</v>
+      </c>
+      <c r="E20" t="str">
+        <v>3</v>
+      </c>
+      <c r="F20" t="str">
+        <v>4</v>
+      </c>
+      <c r="G20" t="str">
+        <v>5</v>
+      </c>
+      <c r="H20" t="str">
+        <v>6</v>
+      </c>
+      <c r="I20" t="str">
+        <v>7</v>
+      </c>
+      <c r="J20" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B21" t="str">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>gph</v>
+      </c>
+      <c r="B22" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="C22" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="D22" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="E22" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="F22" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="G22" t="str">
+        <v>0.7</v>
+      </c>
+      <c r="H22" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="I22" t="str">
+        <v>2.2</v>
+      </c>
+      <c r="J22" t="str">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B23" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="C23" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="D23" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="E23" t="str">
+        <v>0.7</v>
+      </c>
+      <c r="F23" t="str">
+        <v>1.4</v>
+      </c>
+      <c r="G23" t="str">
+        <v>2.2</v>
+      </c>
+      <c r="H23" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="I23" t="str">
+        <v>7.8</v>
+      </c>
+      <c r="J23" t="str">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>bktree</v>
+      </c>
+      <c r="B24" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="C24" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="D24" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="E24" t="str">
+        <v>3.6</v>
+      </c>
+      <c r="F24" t="str">
+        <v>9.2</v>
+      </c>
+      <c r="G24" t="str">
+        <v>18.3</v>
+      </c>
+      <c r="H24" t="str">
+        <v>30.4</v>
+      </c>
+      <c r="I24" t="str">
+        <v>43.9</v>
+      </c>
+      <c r="J24" t="str">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>smlar_4</v>
+      </c>
+      <c r="B25" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="C25" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="D25" t="str">
+        <v>0.7</v>
+      </c>
+      <c r="E25" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>smlar_8</v>
+      </c>
+      <c r="B26" t="str">
+        <v>14.5</v>
+      </c>
+      <c r="C26" t="str">
+        <v>14.5</v>
+      </c>
+      <c r="D26" t="str">
+        <v>14.7</v>
+      </c>
+      <c r="E26" t="str">
+        <v>17.2</v>
+      </c>
+      <c r="F26" t="str">
+        <v>71.4</v>
+      </c>
+      <c r="G26" t="str">
+        <v>107.6</v>
+      </c>
+      <c r="H26" t="str">
+        <v>462.5</v>
+      </c>
+      <c r="I26" t="str">
+        <v>678.7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" t="str">
+        <v>random10m_64</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <v>0</v>
+      </c>
+      <c r="C30" t="str">
+        <v>1</v>
+      </c>
+      <c r="D30" t="str">
+        <v>2</v>
+      </c>
+      <c r="E30" t="str">
+        <v>3</v>
+      </c>
+      <c r="F30" t="str">
+        <v>4</v>
+      </c>
+      <c r="G30" t="str">
+        <v>5</v>
+      </c>
+      <c r="H30" t="str">
+        <v>6</v>
+      </c>
+      <c r="I30" t="str">
+        <v>7</v>
+      </c>
+      <c r="J30" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B31" t="str">
+        <v>545.2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>gph</v>
+      </c>
+      <c r="B32" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="C32" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="D32" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="E32" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="F32" t="str">
+        <v>1.4</v>
+      </c>
+      <c r="G32" t="str">
+        <v>1.9</v>
+      </c>
+      <c r="H32" t="str">
+        <v>6.1</v>
+      </c>
+      <c r="I32" t="str">
+        <v>10.4</v>
+      </c>
+      <c r="J32" t="str">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B33" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="C33" t="str">
+        <v>1.3</v>
+      </c>
+      <c r="D33" t="str">
+        <v>2.3</v>
+      </c>
+      <c r="E33" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="F33" t="str">
+        <v>6.9</v>
+      </c>
+      <c r="G33" t="str">
+        <v>11.8</v>
+      </c>
+      <c r="H33" t="str">
+        <v>17.3</v>
+      </c>
+      <c r="I33" t="str">
+        <v>46.2</v>
+      </c>
+      <c r="J33" t="str">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>bktree</v>
+      </c>
+      <c r="B34" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="C34" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="D34" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="E34" t="str">
+        <v>16.3</v>
+      </c>
+      <c r="F34" t="str">
+        <v>50.5</v>
+      </c>
+      <c r="G34" t="str">
+        <v>120.3</v>
+      </c>
+      <c r="H34" t="str">
+        <v>229.4</v>
+      </c>
+      <c r="I34" t="str">
+        <v>389.4</v>
+      </c>
+      <c r="J34" t="str">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>smlar_4</v>
+      </c>
+      <c r="B35" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="C35" t="str">
+        <v>0.7</v>
+      </c>
+      <c r="D35" t="str">
+        <v>16.5</v>
+      </c>
+      <c r="E35" t="str">
+        <v>23.8</v>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>smlar_8</v>
+      </c>
+      <c r="B36" t="str">
+        <v>166.3</v>
+      </c>
+      <c r="C36" t="str">
+        <v>168.1</v>
+      </c>
+      <c r="D36" t="str">
+        <v>169.6</v>
+      </c>
+      <c r="E36" t="str">
+        <v>195.3</v>
+      </c>
+      <c r="F36" t="str">
+        <v>740.6</v>
+      </c>
+      <c r="G36" t="str">
+        <v>1058</v>
+      </c>
+      <c r="H36" t="str">
+        <v>4688</v>
+      </c>
+      <c r="I36" t="str">
+        <v>6833</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="str">
+        <v>sift1m_128</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v/>
+      </c>
+      <c r="B40" t="str">
+        <v>0</v>
+      </c>
+      <c r="C40" t="str">
+        <v>1</v>
+      </c>
+      <c r="D40" t="str">
+        <v>2</v>
+      </c>
+      <c r="E40" t="str">
+        <v>3</v>
+      </c>
+      <c r="F40" t="str">
+        <v>4</v>
+      </c>
+      <c r="G40" t="str">
+        <v>5</v>
+      </c>
+      <c r="H40" t="str">
+        <v>6</v>
+      </c>
+      <c r="I40" t="str">
+        <v>7</v>
+      </c>
+      <c r="J40" t="str">
+        <v>8</v>
+      </c>
+      <c r="K40" t="str">
+        <v>9</v>
+      </c>
+      <c r="L40" t="str">
+        <v>10</v>
+      </c>
+      <c r="M40" t="str">
+        <v>11</v>
+      </c>
+      <c r="N40" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B41" t="str">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>gph</v>
+      </c>
+      <c r="B42" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="C42" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="D42" t="str">
+        <v>0.7</v>
+      </c>
+      <c r="E42" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="F42" t="str">
+        <v>1.1</v>
+      </c>
+      <c r="G42" t="str">
+        <v>1.3</v>
+      </c>
+      <c r="H42" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="I42" t="str">
+        <v>2.0</v>
+      </c>
+      <c r="J42" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="K42" t="str">
+        <v>5.4</v>
+      </c>
+      <c r="L42" t="str">
+        <v>7.7</v>
+      </c>
+      <c r="M42" t="str">
+        <v>9.6</v>
+      </c>
+      <c r="N42" t="str">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B43" t="str">
+        <v>0.7</v>
+      </c>
+      <c r="C43" t="str">
+        <v>2.1</v>
+      </c>
+      <c r="D43" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="E43" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="F43" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="G43" t="str">
+        <v>3.9</v>
+      </c>
+      <c r="H43" t="str">
+        <v>9.7</v>
+      </c>
+      <c r="I43" t="str">
+        <v>11.7</v>
+      </c>
+      <c r="J43" t="str">
+        <v>14.9</v>
+      </c>
+      <c r="K43" t="str">
+        <v>18.9</v>
+      </c>
+      <c r="L43" t="str">
+        <v>22.4</v>
+      </c>
+      <c r="M43" t="str">
+        <v>60.5</v>
+      </c>
+      <c r="N43" t="str">
+        <v>81.4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>smlar_8</v>
+      </c>
+      <c r="B44" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="C44" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="D44" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="E44" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F44" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="G44" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="H44" t="str">
+        <v>12.9</v>
+      </c>
+      <c r="I44" t="str">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>smlar_16</v>
+      </c>
+      <c r="B45" t="str">
+        <v>84.7</v>
+      </c>
+      <c r="C45" t="str">
+        <v>85.5</v>
+      </c>
+      <c r="D45" t="str">
+        <v>86.4</v>
+      </c>
+      <c r="E45" t="str">
+        <v>86.4</v>
+      </c>
+      <c r="F45" t="str">
+        <v>87.8</v>
+      </c>
+      <c r="G45" t="str">
+        <v>87.6</v>
+      </c>
+      <c r="H45" t="str">
+        <v>89.6</v>
+      </c>
+      <c r="I45" t="str">
+        <v>93.1</v>
+      </c>
+      <c r="J45" t="str">
+        <v>166.7</v>
+      </c>
+      <c r="K45" t="str">
+        <v>238.9</v>
+      </c>
+      <c r="L45" t="str">
+        <v>454.3</v>
+      </c>
+      <c r="M45" t="str">
+        <v>1080</v>
+      </c>
+      <c r="N45" t="str">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="F48" t="str">
+        <v>gist1m_128</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v/>
+      </c>
+      <c r="B49" t="str">
+        <v>0</v>
+      </c>
+      <c r="C49" t="str">
+        <v>1</v>
+      </c>
+      <c r="D49" t="str">
+        <v>2</v>
+      </c>
+      <c r="E49" t="str">
+        <v>3</v>
+      </c>
+      <c r="F49" t="str">
+        <v>4</v>
+      </c>
+      <c r="G49" t="str">
+        <v>5</v>
+      </c>
+      <c r="H49" t="str">
+        <v>6</v>
+      </c>
+      <c r="I49" t="str">
+        <v>7</v>
+      </c>
+      <c r="J49" t="str">
+        <v>8</v>
+      </c>
+      <c r="K49" t="str">
+        <v>9</v>
+      </c>
+      <c r="L49" t="str">
+        <v>10</v>
+      </c>
+      <c r="M49" t="str">
+        <v>11</v>
+      </c>
+      <c r="N49" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B50" t="str">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>gph</v>
+      </c>
+      <c r="B51" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="C51" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="D51" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="E51" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="F51" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="G51" t="str">
+        <v>1.4</v>
+      </c>
+      <c r="H51" t="str">
+        <v>2.0</v>
+      </c>
+      <c r="I51" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="J51" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="K51" t="str">
+        <v>5.3</v>
+      </c>
+      <c r="L51" t="str">
+        <v>5.3</v>
+      </c>
+      <c r="M51" t="str">
+        <v>7.5</v>
+      </c>
+      <c r="N51" t="str">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B52" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="C52" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="D52" t="str">
+        <v>1.9</v>
+      </c>
+      <c r="E52" t="str">
+        <v>1.9</v>
+      </c>
+      <c r="F52" t="str">
+        <v>2.2</v>
+      </c>
+      <c r="G52" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="H52" t="str">
+        <v>6.5</v>
+      </c>
+      <c r="I52" t="str">
+        <v>83.8</v>
+      </c>
+      <c r="J52" t="str">
+        <v>11.5</v>
+      </c>
+      <c r="K52" t="str">
+        <v>14.9</v>
+      </c>
+      <c r="L52" t="str">
+        <v>14.9</v>
+      </c>
+      <c r="M52" t="str">
+        <v>25</v>
+      </c>
+      <c r="N52" t="str">
+        <v>38.2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>smlar_8</v>
+      </c>
+      <c r="B53" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="C53" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="D53" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="E53" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="F53" t="str">
+        <v>0.7</v>
+      </c>
+      <c r="G53" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="H53" t="str">
+        <v>10.7</v>
+      </c>
+      <c r="I53" t="str">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>smlar_16</v>
+      </c>
+      <c r="B54" t="str">
+        <v>86.3</v>
+      </c>
+      <c r="C54" t="str">
+        <v>86.3</v>
+      </c>
+      <c r="D54" t="str">
+        <v>86.3</v>
+      </c>
+      <c r="E54" t="str">
+        <v>86.3</v>
+      </c>
+      <c r="F54" t="str">
+        <v>86.3</v>
+      </c>
+      <c r="G54" t="str">
+        <v>86.3</v>
+      </c>
+      <c r="H54" t="str">
+        <v>88.2</v>
+      </c>
+      <c r="I54" t="str">
+        <v>92.2</v>
+      </c>
+      <c r="J54" t="str">
+        <v>150.6</v>
+      </c>
+      <c r="K54" t="str">
+        <v>237.3</v>
+      </c>
+      <c r="L54" t="str">
+        <v>366.7</v>
+      </c>
+      <c r="M54" t="str">
+        <v>957.9</v>
+      </c>
+      <c r="N54" t="str">
+        <v>2155</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:N54"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R126"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="G1" t="str">
+        <v>gist1m</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B2" t="str">
+        <v>time</v>
+      </c>
+      <c r="C2" t="str">
+        <v>105.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>greddy</v>
+      </c>
+      <c r="B3" t="str">
+        <v>pv_num</v>
+      </c>
+      <c r="C3" t="str">
+        <v>10</v>
+      </c>
+      <c r="D3" t="str">
+        <v>50</v>
+      </c>
+      <c r="E3" t="str">
+        <v>100</v>
+      </c>
+      <c r="F3" t="str">
+        <v>200</v>
+      </c>
+      <c r="G3" t="str">
+        <v>500</v>
+      </c>
+      <c r="H3" t="str">
+        <v>1000</v>
+      </c>
+      <c r="I3" t="str">
+        <v>2000</v>
+      </c>
+      <c r="J3" t="str">
+        <v>3000</v>
+      </c>
+      <c r="K3" t="str">
+        <v>5000</v>
+      </c>
+      <c r="L3" t="str">
+        <v>10000</v>
+      </c>
+      <c r="M3" t="str">
+        <v>15000</v>
+      </c>
+      <c r="N3" t="str">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="str">
+        <v>time</v>
+      </c>
+      <c r="C4" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2.68</v>
+      </c>
+      <c r="F4" t="str">
+        <v>3.51</v>
+      </c>
+      <c r="G4" t="str">
+        <v>8.54</v>
+      </c>
+      <c r="H4" t="str">
+        <v>16.1</v>
+      </c>
+      <c r="I4" t="str">
+        <v>44.3</v>
+      </c>
+      <c r="J4" t="str">
+        <v>98.4</v>
+      </c>
+      <c r="K4" t="str">
+        <v>133.5</v>
+      </c>
+      <c r="L4" t="str">
+        <v>190.9</v>
+      </c>
+      <c r="M4" t="str">
+        <v>241.8</v>
+      </c>
+      <c r="N4" t="str">
+        <v>267.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C5" t="str">
+        <v>0.233</v>
+      </c>
+      <c r="D5" t="str">
+        <v>0.378</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0.473</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0.595</v>
+      </c>
+      <c r="G5" t="str">
+        <v>0.758</v>
+      </c>
+      <c r="H5" t="str">
+        <v>0.874</v>
+      </c>
+      <c r="I5" t="str">
+        <v>0.944</v>
+      </c>
+      <c r="J5" t="str">
+        <v>0.982</v>
+      </c>
+      <c r="K5" t="str">
+        <v>0.997</v>
+      </c>
+      <c r="L5" t="str">
+        <v>1</v>
+      </c>
+      <c r="M5" t="str">
+        <v>1</v>
+      </c>
+      <c r="N5" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B6" t="str">
+        <v>time</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1.3</v>
+      </c>
+      <c r="D6" t="str">
+        <v>1.9</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2.4</v>
+      </c>
+      <c r="F6" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="G6" t="str">
+        <v>7</v>
+      </c>
+      <c r="H6" t="str">
+        <v>12.5</v>
+      </c>
+      <c r="I6" t="str">
+        <v>22.9</v>
+      </c>
+      <c r="J6" t="str">
+        <v>36.1</v>
+      </c>
+      <c r="K6" t="str">
+        <v>71</v>
+      </c>
+      <c r="L6" t="str">
+        <v>163.1</v>
+      </c>
+      <c r="M6" t="str">
+        <v>316.2</v>
+      </c>
+      <c r="N6" t="str">
+        <v>532.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C7" t="str">
+        <v>0.248</v>
+      </c>
+      <c r="D7" t="str">
+        <v>0.385</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0.462</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0.572</v>
+      </c>
+      <c r="G7" t="str">
+        <v>0.741</v>
+      </c>
+      <c r="H7" t="str">
+        <v>0.851</v>
+      </c>
+      <c r="I7" t="str">
+        <v>0.93</v>
+      </c>
+      <c r="J7" t="str">
+        <v>0.974</v>
+      </c>
+      <c r="K7" t="str">
+        <v>0.994</v>
+      </c>
+      <c r="L7" t="str">
+        <v>0.999</v>
+      </c>
+      <c r="M7" t="str">
+        <v>1</v>
+      </c>
+      <c r="N7" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>smlar_4</v>
+      </c>
+      <c r="B8" t="str">
+        <v>thres</v>
+      </c>
+      <c r="C8" t="str">
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="F8" t="str">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>time</v>
+      </c>
+      <c r="C9" t="str">
+        <v>0.22</v>
+      </c>
+      <c r="D9" t="str">
+        <v>0.26</v>
+      </c>
+      <c r="E9" t="str">
+        <v>5</v>
+      </c>
+      <c r="F9" t="str">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C10" t="str">
+        <v>0.129</v>
+      </c>
+      <c r="D10" t="str">
+        <v>0.154</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="F10" t="str">
+        <v>0.429</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>smlar_8</v>
+      </c>
+      <c r="B11" t="str">
+        <v>thres</v>
+      </c>
+      <c r="C11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <v>0.875</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="F11" t="str">
+        <v>0.625</v>
+      </c>
+      <c r="G11" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="H11" t="str">
+        <v>0.375</v>
+      </c>
+      <c r="I11" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="J11" t="str">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="str">
+        <v>time</v>
+      </c>
+      <c r="C12" t="str">
+        <v>14.2</v>
+      </c>
+      <c r="D12" t="str">
+        <v>14.2</v>
+      </c>
+      <c r="E12" t="str">
+        <v>15.1</v>
+      </c>
+      <c r="F12" t="str">
+        <v>19.5</v>
+      </c>
+      <c r="G12" t="str">
+        <v>93.7</v>
+      </c>
+      <c r="H12" t="str">
+        <v>122.9</v>
+      </c>
+      <c r="I12" t="str">
+        <v>527.5</v>
+      </c>
+      <c r="J12" t="str">
+        <v>775.1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C13" t="str">
+        <v>0.129</v>
+      </c>
+      <c r="D13" t="str">
+        <v>0.149</v>
+      </c>
+      <c r="E13" t="str">
+        <v>0.169</v>
+      </c>
+      <c r="F13" t="str">
+        <v>0.213</v>
+      </c>
+      <c r="G13" t="str">
+        <v>0.304</v>
+      </c>
+      <c r="H13" t="str">
+        <v>0.511</v>
+      </c>
+      <c r="I13" t="str">
+        <v>0.792</v>
+      </c>
+      <c r="J13" t="str">
+        <v>0.974</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>vector</v>
+      </c>
+      <c r="B14" t="str">
+        <v>probes</v>
+      </c>
+      <c r="C14" t="str">
+        <v>1</v>
+      </c>
+      <c r="D14" t="str">
+        <v>5</v>
+      </c>
+      <c r="E14" t="str">
+        <v>10</v>
+      </c>
+      <c r="F14" t="str">
+        <v>20</v>
+      </c>
+      <c r="G14" t="str">
+        <v>50</v>
+      </c>
+      <c r="H14" t="str">
+        <v>100</v>
+      </c>
+      <c r="I14" t="str">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v>time</v>
+      </c>
+      <c r="C15" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="D15" t="str">
+        <v>1</v>
+      </c>
+      <c r="E15" t="str">
+        <v>1.97</v>
+      </c>
+      <c r="F15" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="G15" t="str">
+        <v>8.79</v>
+      </c>
+      <c r="H15" t="str">
+        <v>16.3</v>
+      </c>
+      <c r="I15" t="str">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C16" t="str">
+        <v>0.426</v>
+      </c>
+      <c r="D16" t="str">
+        <v>0.721</v>
+      </c>
+      <c r="E16" t="str">
+        <v>0.83</v>
+      </c>
+      <c r="F16" t="str">
+        <v>0.907</v>
+      </c>
+      <c r="G16" t="str">
+        <v>0.972</v>
+      </c>
+      <c r="H16" t="str">
+        <v>0.986</v>
+      </c>
+      <c r="I16" t="str">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>cube</v>
+      </c>
+      <c r="B17" t="str">
+        <v>time</v>
+      </c>
+      <c r="C17" t="str">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>sp-hamming-gist</v>
+      </c>
+      <c r="B18" t="str">
+        <v>r</v>
+      </c>
+      <c r="C18" t="str">
+        <v>0</v>
+      </c>
+      <c r="D18" t="str">
+        <v>1</v>
+      </c>
+      <c r="E18" t="str">
+        <v>2</v>
+      </c>
+      <c r="F18" t="str">
+        <v>3</v>
+      </c>
+      <c r="G18" t="str">
+        <v>4</v>
+      </c>
+      <c r="H18" t="str">
+        <v>5</v>
+      </c>
+      <c r="I18" t="str">
+        <v>6</v>
+      </c>
+      <c r="J18" t="str">
+        <v>7</v>
+      </c>
+      <c r="K18" t="str">
+        <v>8</v>
+      </c>
+      <c r="L18" t="str">
+        <v>9</v>
+      </c>
+      <c r="M18" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="str">
+        <v>time</v>
+      </c>
+      <c r="C19" t="str">
+        <v>0.03</v>
+      </c>
+      <c r="D19" t="str">
+        <v>0.145</v>
+      </c>
+      <c r="E19" t="str">
+        <v>0.641</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2.2</v>
+      </c>
+      <c r="G19" t="str">
+        <v>6</v>
+      </c>
+      <c r="H19" t="str">
+        <v>13.7</v>
+      </c>
+      <c r="I19" t="str">
+        <v>25.2</v>
+      </c>
+      <c r="J19" t="str">
+        <v>43.9</v>
+      </c>
+      <c r="K19" t="str">
+        <v>70</v>
+      </c>
+      <c r="L19" t="str">
+        <v>104</v>
+      </c>
+      <c r="M19" t="str">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C20" t="str">
+        <v>0.129</v>
+      </c>
+      <c r="D20" t="str">
+        <v>0.144</v>
+      </c>
+      <c r="E20" t="str">
+        <v>0.156</v>
+      </c>
+      <c r="F20" t="str">
+        <v>0.182</v>
+      </c>
+      <c r="G20" t="str">
+        <v>0.197</v>
+      </c>
+      <c r="H20" t="str">
+        <v>0.237</v>
+      </c>
+      <c r="I20" t="str">
+        <v>0.286</v>
+      </c>
+      <c r="J20" t="str">
+        <v>0.329</v>
+      </c>
+      <c r="K20" t="str">
+        <v>0.392</v>
+      </c>
+      <c r="L20" t="str">
+        <v>0.466</v>
+      </c>
+      <c r="M20" t="str">
+        <v>0.582</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="G24" t="str">
+        <v>sift1m</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B25" t="str">
+        <v>time</v>
+      </c>
+      <c r="C25" t="str">
+        <v>106.2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>greddy</v>
+      </c>
+      <c r="B26" t="str">
+        <v>pv_num</v>
+      </c>
+      <c r="C26" t="str">
+        <v>10</v>
+      </c>
+      <c r="D26" t="str">
+        <v>50</v>
+      </c>
+      <c r="E26" t="str">
+        <v>100</v>
+      </c>
+      <c r="F26" t="str">
+        <v>200</v>
+      </c>
+      <c r="G26" t="str">
+        <v>500</v>
+      </c>
+      <c r="H26" t="str">
+        <v>1000</v>
+      </c>
+      <c r="I26" t="str">
+        <v>2000</v>
+      </c>
+      <c r="J26" t="str">
+        <v>3000</v>
+      </c>
+      <c r="K26" t="str">
+        <v>5000</v>
+      </c>
+      <c r="L26" t="str">
+        <v>10000</v>
+      </c>
+      <c r="M26" t="str">
+        <v>15000</v>
+      </c>
+      <c r="N26" t="str">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="str">
+        <v>time</v>
+      </c>
+      <c r="C27" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="D27" t="str">
+        <v>1.34</v>
+      </c>
+      <c r="E27" t="str">
+        <v>1.72</v>
+      </c>
+      <c r="F27" t="str">
+        <v>2.7</v>
+      </c>
+      <c r="G27" t="str">
+        <v>3.94</v>
+      </c>
+      <c r="H27" t="str">
+        <v>18.5</v>
+      </c>
+      <c r="I27" t="str">
+        <v>53.9</v>
+      </c>
+      <c r="J27" t="str">
+        <v>84.1</v>
+      </c>
+      <c r="K27" t="str">
+        <v>94.8</v>
+      </c>
+      <c r="L27" t="str">
+        <v>130.9</v>
+      </c>
+      <c r="M27" t="str">
+        <v>169.7</v>
+      </c>
+      <c r="N27" t="str">
+        <v>236.3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C28" t="str">
+        <v>0.315</v>
+      </c>
+      <c r="D28" t="str">
+        <v>0.495</v>
+      </c>
+      <c r="E28" t="str">
+        <v>0.582</v>
+      </c>
+      <c r="F28" t="str">
+        <v>0.708</v>
+      </c>
+      <c r="G28" t="str">
+        <v>0.829</v>
+      </c>
+      <c r="H28" t="str">
+        <v>0.936</v>
+      </c>
+      <c r="I28" t="str">
+        <v>0.986</v>
+      </c>
+      <c r="J28" t="str">
+        <v>0.994</v>
+      </c>
+      <c r="K28" t="str">
+        <v>0.99</v>
+      </c>
+      <c r="L28" t="str">
+        <v>1</v>
+      </c>
+      <c r="M28" t="str">
+        <v>1</v>
+      </c>
+      <c r="N28" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B29" t="str">
+        <v>time</v>
+      </c>
+      <c r="C29" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="D29" t="str">
+        <v>1.49</v>
+      </c>
+      <c r="E29" t="str">
+        <v>1.93</v>
+      </c>
+      <c r="F29" t="str">
+        <v>2.94</v>
+      </c>
+      <c r="G29" t="str">
+        <v>4.62</v>
+      </c>
+      <c r="H29" t="str">
+        <v>8.4</v>
+      </c>
+      <c r="I29" t="str">
+        <v>16.1</v>
+      </c>
+      <c r="J29" t="str">
+        <v>22.8</v>
+      </c>
+      <c r="K29" t="str">
+        <v>33.3</v>
+      </c>
+      <c r="L29" t="str">
+        <v>76.9</v>
+      </c>
+      <c r="M29" t="str">
+        <v>128.7</v>
+      </c>
+      <c r="N29" t="str">
+        <v>178.3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C30" t="str">
+        <v>0.327</v>
+      </c>
+      <c r="D30" t="str">
+        <v>0.461</v>
+      </c>
+      <c r="E30" t="str">
+        <v>0.57</v>
+      </c>
+      <c r="F30" t="str">
+        <v>0.69</v>
+      </c>
+      <c r="G30" t="str">
+        <v>0.822</v>
+      </c>
+      <c r="H30" t="str">
+        <v>0.923</v>
+      </c>
+      <c r="I30" t="str">
+        <v>0.978</v>
+      </c>
+      <c r="J30" t="str">
+        <v>0.994</v>
+      </c>
+      <c r="K30" t="str">
+        <v>0.997</v>
+      </c>
+      <c r="L30" t="str">
+        <v>1</v>
+      </c>
+      <c r="M30" t="str">
+        <v>1</v>
+      </c>
+      <c r="N30" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>smlar_4</v>
+      </c>
+      <c r="B31" t="str">
+        <v>thres</v>
+      </c>
+      <c r="C31" t="str">
+        <v>1</v>
+      </c>
+      <c r="D31" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="E31" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="F31" t="str">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="str">
+        <v>time</v>
+      </c>
+      <c r="C32" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="D32" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="E32" t="str">
+        <v>7.4</v>
+      </c>
+      <c r="F32" t="str">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C33" t="str">
+        <v>0.122</v>
+      </c>
+      <c r="D33" t="str">
+        <v>0.174</v>
+      </c>
+      <c r="E33" t="str">
+        <v>0.322</v>
+      </c>
+      <c r="F33" t="str">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>smlar_8</v>
+      </c>
+      <c r="B34" t="str">
+        <v>thres</v>
+      </c>
+      <c r="C34" t="str">
+        <v>1</v>
+      </c>
+      <c r="D34" t="str">
+        <v>0.875</v>
+      </c>
+      <c r="E34" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="F34" t="str">
+        <v>0.625</v>
+      </c>
+      <c r="G34" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="H34" t="str">
+        <v>0.375</v>
+      </c>
+      <c r="I34" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="J34" t="str">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="str">
+        <v>time</v>
+      </c>
+      <c r="C35" t="str">
+        <v>14.1</v>
+      </c>
+      <c r="D35" t="str">
+        <v>14.2</v>
+      </c>
+      <c r="E35" t="str">
+        <v>14.7</v>
+      </c>
+      <c r="F35" t="str">
+        <v>19.5</v>
+      </c>
+      <c r="G35" t="str">
+        <v>108.4</v>
+      </c>
+      <c r="H35" t="str">
+        <v>146.5</v>
+      </c>
+      <c r="I35" t="str">
+        <v>573.7</v>
+      </c>
+      <c r="J35" t="str">
+        <v>837.3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C36" t="str">
+        <v>0.122</v>
+      </c>
+      <c r="D36" t="str">
+        <v>0.158</v>
+      </c>
+      <c r="E36" t="str">
+        <v>0.212</v>
+      </c>
+      <c r="F36" t="str">
+        <v>0.37</v>
+      </c>
+      <c r="G36" t="str">
+        <v>0.625</v>
+      </c>
+      <c r="H36" t="str">
+        <v>0.874</v>
+      </c>
+      <c r="I36" t="str">
+        <v>0.978</v>
+      </c>
+      <c r="J36" t="str">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>vector</v>
+      </c>
+      <c r="B37" t="str">
+        <v>probes</v>
+      </c>
+      <c r="C37" t="str">
+        <v>1</v>
+      </c>
+      <c r="D37" t="str">
+        <v>5</v>
+      </c>
+      <c r="E37" t="str">
+        <v>10</v>
+      </c>
+      <c r="F37" t="str">
+        <v>20</v>
+      </c>
+      <c r="G37" t="str">
+        <v>50</v>
+      </c>
+      <c r="H37" t="str">
+        <v>100</v>
+      </c>
+      <c r="I37" t="str">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <v>time</v>
+      </c>
+      <c r="C38" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="D38" t="str">
+        <v>1</v>
+      </c>
+      <c r="E38" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="F38" t="str">
+        <v>3.4</v>
+      </c>
+      <c r="G38" t="str">
+        <v>8.2</v>
+      </c>
+      <c r="H38" t="str">
+        <v>15.5</v>
+      </c>
+      <c r="I38" t="str">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C39" t="str">
+        <v>0.563</v>
+      </c>
+      <c r="D39" t="str">
+        <v>0.885</v>
+      </c>
+      <c r="E39" t="str">
+        <v>0.95</v>
+      </c>
+      <c r="F39" t="str">
+        <v>0.982</v>
+      </c>
+      <c r="G39" t="str">
+        <v>1</v>
+      </c>
+      <c r="H39" t="str">
+        <v>1</v>
+      </c>
+      <c r="I39" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>cube</v>
+      </c>
+      <c r="B40" t="str">
+        <v>time</v>
+      </c>
+      <c r="C40" t="str">
+        <v>581.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>sp-hamming-gist</v>
+      </c>
+      <c r="B41" t="str">
+        <v>r</v>
+      </c>
+      <c r="C41" t="str">
+        <v>0</v>
+      </c>
+      <c r="D41" t="str">
+        <v>1</v>
+      </c>
+      <c r="E41" t="str">
+        <v>2</v>
+      </c>
+      <c r="F41" t="str">
+        <v>3</v>
+      </c>
+      <c r="G41" t="str">
+        <v>4</v>
+      </c>
+      <c r="H41" t="str">
+        <v>5</v>
+      </c>
+      <c r="I41" t="str">
+        <v>6</v>
+      </c>
+      <c r="J41" t="str">
+        <v>7</v>
+      </c>
+      <c r="K41" t="str">
+        <v>8</v>
+      </c>
+      <c r="L41" t="str">
+        <v>9</v>
+      </c>
+      <c r="M41" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="str">
+        <v>time</v>
+      </c>
+      <c r="C42" t="str">
+        <v>0.03</v>
+      </c>
+      <c r="D42" t="str">
+        <v>0.145</v>
+      </c>
+      <c r="E42" t="str">
+        <v>0.641</v>
+      </c>
+      <c r="F42" t="str">
+        <v>2</v>
+      </c>
+      <c r="G42" t="str">
+        <v>5.39</v>
+      </c>
+      <c r="H42" t="str">
+        <v>11.7</v>
+      </c>
+      <c r="I42" t="str">
+        <v>22.1</v>
+      </c>
+      <c r="J42" t="str">
+        <v>37.4</v>
+      </c>
+      <c r="K42" t="str">
+        <v>58</v>
+      </c>
+      <c r="L42" t="str">
+        <v>84.5</v>
+      </c>
+      <c r="M42" t="str">
+        <v>116.7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C43" t="str">
+        <v>0.129</v>
+      </c>
+      <c r="D43" t="str">
+        <v>0.144</v>
+      </c>
+      <c r="E43" t="str">
+        <v>0.183</v>
+      </c>
+      <c r="F43" t="str">
+        <v>0.239</v>
+      </c>
+      <c r="G43" t="str">
+        <v>0.327</v>
+      </c>
+      <c r="H43" t="str">
+        <v>0.463</v>
+      </c>
+      <c r="I43" t="str">
+        <v>0.621</v>
+      </c>
+      <c r="J43" t="str">
+        <v>0.767</v>
+      </c>
+      <c r="K43" t="str">
+        <v>0.869</v>
+      </c>
+      <c r="L43" t="str">
+        <v>0.958</v>
+      </c>
+      <c r="M43" t="str">
+        <v>0.981</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="G47" t="str">
+        <v>random1m</v>
+      </c>
+      <c r="H47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B48" t="str">
+        <v>time</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>greddy</v>
+      </c>
+      <c r="B49" t="str">
+        <v>pv_num</v>
+      </c>
+      <c r="C49" t="str">
+        <v>10</v>
+      </c>
+      <c r="D49" t="str">
+        <v>50</v>
+      </c>
+      <c r="E49" t="str">
+        <v>100</v>
+      </c>
+      <c r="F49" t="str">
+        <v>200</v>
+      </c>
+      <c r="G49" t="str">
+        <v>500</v>
+      </c>
+      <c r="H49" t="str">
+        <v>1000</v>
+      </c>
+      <c r="I49" t="str">
+        <v>2000</v>
+      </c>
+      <c r="J49" t="str">
+        <v>3000</v>
+      </c>
+      <c r="K49" t="str">
+        <v>5000</v>
+      </c>
+      <c r="L49" t="str">
+        <v>10000</v>
+      </c>
+      <c r="M49" t="str">
+        <v>15000</v>
+      </c>
+      <c r="N49" t="str">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="str">
+        <v>time</v>
+      </c>
+      <c r="C50" t="str">
+        <v>0.7</v>
+      </c>
+      <c r="D50" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="E50" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="F50" t="str">
+        <v>2.2</v>
+      </c>
+      <c r="G50" t="str">
+        <v>7.6</v>
+      </c>
+      <c r="H50" t="str">
+        <v>12.5</v>
+      </c>
+      <c r="I50" t="str">
+        <v>117.9</v>
+      </c>
+      <c r="J50" t="str">
+        <v>125.7</v>
+      </c>
+      <c r="K50" t="str">
+        <v>167.5</v>
+      </c>
+      <c r="L50" t="str">
+        <v>207.6</v>
+      </c>
+      <c r="M50" t="str">
+        <v>206.9</v>
+      </c>
+      <c r="N50" t="str">
+        <v>207.9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C51" t="str">
+        <v>0.129</v>
+      </c>
+      <c r="D51" t="str">
+        <v>0.216</v>
+      </c>
+      <c r="E51" t="str">
+        <v>0.237</v>
+      </c>
+      <c r="F51" t="str">
+        <v>0.324</v>
+      </c>
+      <c r="G51" t="str">
+        <v>0.516</v>
+      </c>
+      <c r="H51" t="str">
+        <v>0.64</v>
+      </c>
+      <c r="I51" t="str">
+        <v>0.857</v>
+      </c>
+      <c r="J51" t="str">
+        <v>0.868</v>
+      </c>
+      <c r="K51" t="str">
+        <v>0.956</v>
+      </c>
+      <c r="L51" t="str">
+        <v>0.991</v>
+      </c>
+      <c r="M51" t="str">
+        <v>0.991</v>
+      </c>
+      <c r="N51" t="str">
+        <v>0.991</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B52" t="str">
+        <v>time</v>
+      </c>
+      <c r="C52" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="D52" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="E52" t="str">
+        <v>2.3</v>
+      </c>
+      <c r="F52" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="G52" t="str">
+        <v>7.9</v>
+      </c>
+      <c r="H52" t="str">
+        <v>13.7</v>
+      </c>
+      <c r="I52" t="str">
+        <v>54.1</v>
+      </c>
+      <c r="J52" t="str">
+        <v>56.6</v>
+      </c>
+      <c r="K52" t="str">
+        <v>103.9</v>
+      </c>
+      <c r="L52" t="str">
+        <v>492.8</v>
+      </c>
+      <c r="M52" t="str">
+        <v>493.2</v>
+      </c>
+      <c r="N52" t="str">
+        <v>899.2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v/>
+      </c>
+      <c r="B53" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C53" t="str">
+        <v>0.137</v>
+      </c>
+      <c r="D53" t="str">
+        <v>0.227</v>
+      </c>
+      <c r="E53" t="str">
+        <v>0.293</v>
+      </c>
+      <c r="F53" t="str">
+        <v>0.354</v>
+      </c>
+      <c r="G53" t="str">
+        <v>0.495</v>
+      </c>
+      <c r="H53" t="str">
+        <v>0.635</v>
+      </c>
+      <c r="I53" t="str">
+        <v>0.871</v>
+      </c>
+      <c r="J53" t="str">
+        <v>0.883</v>
+      </c>
+      <c r="K53" t="str">
+        <v>0.956</v>
+      </c>
+      <c r="L53" t="str">
+        <v>1</v>
+      </c>
+      <c r="M53" t="str">
+        <v>1</v>
+      </c>
+      <c r="N53" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>smlar_4</v>
+      </c>
+      <c r="B54" t="str">
+        <v>thres</v>
+      </c>
+      <c r="C54" t="str">
+        <v>1</v>
+      </c>
+      <c r="D54" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="E54" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="F54" t="str">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="str">
+        <v>time</v>
+      </c>
+      <c r="C55" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="D55" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="E55" t="str">
+        <v>0.7</v>
+      </c>
+      <c r="F55" t="str">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C56" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="D56" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="E56" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="F56" t="str">
+        <v>0.146</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>smlar_8</v>
+      </c>
+      <c r="B57" t="str">
+        <v>thres</v>
+      </c>
+      <c r="C57" t="str">
+        <v>1</v>
+      </c>
+      <c r="D57" t="str">
+        <v>0.875</v>
+      </c>
+      <c r="E57" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="F57" t="str">
+        <v>0.625</v>
+      </c>
+      <c r="G57" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="H57" t="str">
+        <v>0.375</v>
+      </c>
+      <c r="I57" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="J57" t="str">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="str">
+        <v>time</v>
+      </c>
+      <c r="C58" t="str">
+        <v>14.4</v>
+      </c>
+      <c r="D58" t="str">
+        <v>14.5</v>
+      </c>
+      <c r="E58" t="str">
+        <v>14.8</v>
+      </c>
+      <c r="F58" t="str">
+        <v>17.2</v>
+      </c>
+      <c r="G58" t="str">
+        <v>70</v>
+      </c>
+      <c r="H58" t="str">
+        <v>107.6</v>
+      </c>
+      <c r="I58" t="str">
+        <v>465</v>
+      </c>
+      <c r="J58" t="str">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C59" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="D59" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="E59" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="F59" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="G59" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="H59" t="str">
+        <v>0.147</v>
+      </c>
+      <c r="I59" t="str">
+        <v>0.445</v>
+      </c>
+      <c r="J59" t="str">
+        <v>0.849</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>vector</v>
+      </c>
+      <c r="B60" t="str">
+        <v>probes</v>
+      </c>
+      <c r="C60" t="str">
+        <v>1</v>
+      </c>
+      <c r="D60" t="str">
+        <v>5</v>
+      </c>
+      <c r="E60" t="str">
+        <v>10</v>
+      </c>
+      <c r="F60" t="str">
+        <v>20</v>
+      </c>
+      <c r="G60" t="str">
+        <v>50</v>
+      </c>
+      <c r="H60" t="str">
+        <v>100</v>
+      </c>
+      <c r="I60" t="str">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v/>
+      </c>
+      <c r="B61" t="str">
+        <v>time</v>
+      </c>
+      <c r="C61" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="D61" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="E61" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="F61" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="G61" t="str">
+        <v>8.2</v>
+      </c>
+      <c r="H61" t="str">
+        <v>15.9</v>
+      </c>
+      <c r="I61" t="str">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C62" t="str">
+        <v>0.178</v>
+      </c>
+      <c r="D62" t="str">
+        <v>0.318</v>
+      </c>
+      <c r="E62" t="str">
+        <v>0.424</v>
+      </c>
+      <c r="F62" t="str">
+        <v>0.55</v>
+      </c>
+      <c r="G62" t="str">
+        <v>0.749</v>
+      </c>
+      <c r="H62" t="str">
+        <v>0.866</v>
+      </c>
+      <c r="I62" t="str">
+        <v>0.946</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>cube</v>
+      </c>
+      <c r="B63" t="str">
+        <v>time</v>
+      </c>
+      <c r="C63" t="str">
+        <v>706.7</v>
+      </c>
+      <c r="G63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>sp-hamming-gist</v>
+      </c>
+      <c r="B64" t="str">
+        <v>r</v>
+      </c>
+      <c r="C64" t="str">
+        <v>0</v>
+      </c>
+      <c r="D64" t="str">
+        <v>1</v>
+      </c>
+      <c r="E64" t="str">
+        <v>2</v>
+      </c>
+      <c r="F64" t="str">
+        <v>3</v>
+      </c>
+      <c r="G64" t="str">
+        <v>4</v>
+      </c>
+      <c r="H64" t="str">
+        <v>5</v>
+      </c>
+      <c r="I64" t="str">
+        <v>6</v>
+      </c>
+      <c r="J64" t="str">
+        <v>7</v>
+      </c>
+      <c r="K64" t="str">
+        <v>8</v>
+      </c>
+      <c r="L64" t="str">
+        <v>9</v>
+      </c>
+      <c r="M64" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="str">
+        <v>time</v>
+      </c>
+      <c r="C65" t="str">
+        <v>0.03</v>
+      </c>
+      <c r="D65" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="E65" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="F65" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="G65" t="str">
+        <v>12</v>
+      </c>
+      <c r="H65" t="str">
+        <v>28.1</v>
+      </c>
+      <c r="I65" t="str">
+        <v>55.8</v>
+      </c>
+      <c r="J65" t="str">
+        <v>96.8</v>
+      </c>
+      <c r="K65" t="str">
+        <v>151.3</v>
+      </c>
+      <c r="L65" t="str">
+        <v>218.8</v>
+      </c>
+      <c r="M65" t="str">
+        <v>296.9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C66" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="D66" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="E66" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="F66" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="G66" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="H66" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="I66" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="J66" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="K66" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="L66" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="M66" t="str">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="G69" t="str">
+        <v>random10m</v>
+      </c>
+      <c r="H69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B70" t="str">
+        <v>time</v>
+      </c>
+      <c r="C70" t="str">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>greddy</v>
+      </c>
+      <c r="B71" t="str">
+        <v>pv_num</v>
+      </c>
+      <c r="C71" t="str">
+        <v>10</v>
+      </c>
+      <c r="D71" t="str">
+        <v>50</v>
+      </c>
+      <c r="E71" t="str">
+        <v>100</v>
+      </c>
+      <c r="F71" t="str">
+        <v>200</v>
+      </c>
+      <c r="G71" t="str">
+        <v>500</v>
+      </c>
+      <c r="H71" t="str">
+        <v>1000</v>
+      </c>
+      <c r="I71" t="str">
+        <v>2000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>3000</v>
+      </c>
+      <c r="K71" t="str">
+        <v>5000</v>
+      </c>
+      <c r="L71" t="str">
+        <v>10000</v>
+      </c>
+      <c r="M71" t="str">
+        <v>15000</v>
+      </c>
+      <c r="N71" t="str">
+        <v>20000</v>
+      </c>
+      <c r="O71" t="str">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="str">
+        <v>time</v>
+      </c>
+      <c r="C72" t="str">
+        <v>0.7</v>
+      </c>
+      <c r="D72" t="str">
+        <v>1.3</v>
+      </c>
+      <c r="E72" t="str">
+        <v>1.3</v>
+      </c>
+      <c r="F72" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="G72" t="str">
+        <v>6.8</v>
+      </c>
+      <c r="H72" t="str">
+        <v>7.0</v>
+      </c>
+      <c r="I72" t="str">
+        <v>11.9</v>
+      </c>
+      <c r="J72" t="str">
+        <v>54.2</v>
+      </c>
+      <c r="K72" t="str">
+        <v>53</v>
+      </c>
+      <c r="L72" t="str">
+        <v>92.9</v>
+      </c>
+      <c r="M72" t="str">
+        <v>123.5</v>
+      </c>
+      <c r="N72" t="str">
+        <v>1281</v>
+      </c>
+      <c r="O72" t="str">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C73" t="str">
+        <v>0.117</v>
+      </c>
+      <c r="D73" t="str">
+        <v>0.158</v>
+      </c>
+      <c r="E73" t="str">
+        <v>0.178</v>
+      </c>
+      <c r="F73" t="str">
+        <v>0.223</v>
+      </c>
+      <c r="G73" t="str">
+        <v>0.349</v>
+      </c>
+      <c r="H73" t="str">
+        <v>0.397</v>
+      </c>
+      <c r="I73" t="str">
+        <v>0.516</v>
+      </c>
+      <c r="J73" t="str">
+        <v>0.693</v>
+      </c>
+      <c r="K73" t="str">
+        <v>0.693</v>
+      </c>
+      <c r="L73" t="str">
+        <v>0.815</v>
+      </c>
+      <c r="M73" t="str">
+        <v>0.882</v>
+      </c>
+      <c r="N73" t="str">
+        <v>0.98</v>
+      </c>
+      <c r="O73" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B74" t="str">
+        <v>time</v>
+      </c>
+      <c r="C74" t="str">
+        <v>0.7</v>
+      </c>
+      <c r="D74" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="E74" t="str">
+        <v>1.7</v>
+      </c>
+      <c r="F74" t="str">
+        <v>2.2</v>
+      </c>
+      <c r="G74" t="str">
+        <v>6.32</v>
+      </c>
+      <c r="H74" t="str">
+        <v>11</v>
+      </c>
+      <c r="I74" t="str">
+        <v>15.8</v>
+      </c>
+      <c r="J74" t="str">
+        <v>44.6</v>
+      </c>
+      <c r="K74" t="str">
+        <v>43.6</v>
+      </c>
+      <c r="L74" t="str">
+        <v>86.6</v>
+      </c>
+      <c r="M74" t="str">
+        <v>128.3</v>
+      </c>
+      <c r="N74" t="str">
+        <v>434</v>
+      </c>
+      <c r="O74" t="str">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v/>
+      </c>
+      <c r="B75" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C75" t="str">
+        <v>0.121</v>
+      </c>
+      <c r="D75" t="str">
+        <v>0.152</v>
+      </c>
+      <c r="E75" t="str">
+        <v>0.192</v>
+      </c>
+      <c r="F75" t="str">
+        <v>0.228</v>
+      </c>
+      <c r="G75" t="str">
+        <v>0.335</v>
+      </c>
+      <c r="H75" t="str">
+        <v>0.436</v>
+      </c>
+      <c r="I75" t="str">
+        <v>0.53</v>
+      </c>
+      <c r="J75" t="str">
+        <v>0.654</v>
+      </c>
+      <c r="K75" t="str">
+        <v>0.654</v>
+      </c>
+      <c r="L75" t="str">
+        <v>0.788</v>
+      </c>
+      <c r="M75" t="str">
+        <v>0.893</v>
+      </c>
+      <c r="N75" t="str">
+        <v>0.972</v>
+      </c>
+      <c r="O75" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>smlar_4</v>
+      </c>
+      <c r="B76" t="str">
+        <v>thres</v>
+      </c>
+      <c r="C76" t="str">
+        <v>1</v>
+      </c>
+      <c r="D76" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="E76" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="F76" t="str">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="str">
+        <v>time</v>
+      </c>
+      <c r="C77" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="D77" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="E77" t="str">
+        <v>13.5</v>
+      </c>
+      <c r="F77" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C78" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="D78" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="E78" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="F78" t="str">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>smlar_8</v>
+      </c>
+      <c r="B79" t="str">
+        <v>thres</v>
+      </c>
+      <c r="C79" t="str">
+        <v>1</v>
+      </c>
+      <c r="D79" t="str">
+        <v>0.875</v>
+      </c>
+      <c r="E79" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="F79" t="str">
+        <v>0.625</v>
+      </c>
+      <c r="G79" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="H79" t="str">
+        <v>0.375</v>
+      </c>
+      <c r="I79" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="J79" t="str">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="str">
+        <v>time</v>
+      </c>
+      <c r="C80" t="str">
+        <v>143.0</v>
+      </c>
+      <c r="D80" t="str">
+        <v>143.1</v>
+      </c>
+      <c r="E80" t="str">
+        <v>148.1</v>
+      </c>
+      <c r="F80" t="str">
+        <v>182.6</v>
+      </c>
+      <c r="G80" t="str">
+        <v>754.9</v>
+      </c>
+      <c r="H80" t="str">
+        <v>1170</v>
+      </c>
+      <c r="I80" t="str">
+        <v>4731</v>
+      </c>
+      <c r="J80" t="str">
+        <v>7069</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C81" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="D81" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="E81" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="F81" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="G81" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="H81" t="str">
+        <v>0.224</v>
+      </c>
+      <c r="I81" t="str">
+        <v>0.567</v>
+      </c>
+      <c r="J81" t="str">
+        <v>0.895</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>vector</v>
+      </c>
+      <c r="B82" t="str">
+        <v>probes</v>
+      </c>
+      <c r="C82" t="str">
+        <v>1</v>
+      </c>
+      <c r="D82" t="str">
+        <v>5</v>
+      </c>
+      <c r="E82" t="str">
+        <v>10</v>
+      </c>
+      <c r="F82" t="str">
+        <v>20</v>
+      </c>
+      <c r="G82" t="str">
+        <v>50</v>
+      </c>
+      <c r="H82" t="str">
+        <v>100</v>
+      </c>
+      <c r="I82" t="str">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v/>
+      </c>
+      <c r="B83" t="str">
+        <v>time</v>
+      </c>
+      <c r="C83" t="str">
+        <v>1.7</v>
+      </c>
+      <c r="D83" t="str">
+        <v>7.7</v>
+      </c>
+      <c r="E83" t="str">
+        <v>15.4</v>
+      </c>
+      <c r="F83" t="str">
+        <v>30.9</v>
+      </c>
+      <c r="G83" t="str">
+        <v>76.4</v>
+      </c>
+      <c r="H83" t="str">
+        <v>186.5</v>
+      </c>
+      <c r="I83" t="str">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C84" t="str">
+        <v>0.22</v>
+      </c>
+      <c r="D84" t="str">
+        <v>0.389</v>
+      </c>
+      <c r="E84" t="str">
+        <v>0.503</v>
+      </c>
+      <c r="F84" t="str">
+        <v>0.592</v>
+      </c>
+      <c r="G84" t="str">
+        <v>0.765</v>
+      </c>
+      <c r="H84" t="str">
+        <v>0.888</v>
+      </c>
+      <c r="I84" t="str">
+        <v>0.964</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>cube</v>
+      </c>
+      <c r="B85" t="str">
+        <v>time</v>
+      </c>
+      <c r="C85" t="str">
+        <v>8620</v>
+      </c>
+      <c r="G85" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>sp-hamming-gist</v>
+      </c>
+      <c r="B86" t="str">
+        <v>r</v>
+      </c>
+      <c r="C86" t="str">
+        <v>0</v>
+      </c>
+      <c r="D86" t="str">
+        <v>1</v>
+      </c>
+      <c r="E86" t="str">
+        <v>2</v>
+      </c>
+      <c r="F86" t="str">
+        <v>3</v>
+      </c>
+      <c r="G86" t="str">
+        <v>4</v>
+      </c>
+      <c r="H86" t="str">
+        <v>5</v>
+      </c>
+      <c r="I86" t="str">
+        <v>6</v>
+      </c>
+      <c r="J86" t="str">
+        <v>7</v>
+      </c>
+      <c r="K86" t="str">
+        <v>8</v>
+      </c>
+      <c r="L86" t="str">
+        <v>9</v>
+      </c>
+      <c r="M86" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="str">
+        <v>time</v>
+      </c>
+      <c r="C87" t="str">
+        <v>0.03</v>
+      </c>
+      <c r="D87" t="str">
+        <v>0.47</v>
+      </c>
+      <c r="E87" t="str">
+        <v>3.9</v>
+      </c>
+      <c r="F87" t="str">
+        <v>20</v>
+      </c>
+      <c r="G87" t="str">
+        <v>73</v>
+      </c>
+      <c r="H87" t="str">
+        <v>198</v>
+      </c>
+      <c r="I87" t="str">
+        <v>440</v>
+      </c>
+      <c r="J87" t="str">
+        <v>829</v>
+      </c>
+      <c r="K87" t="str">
+        <v>1383</v>
+      </c>
+      <c r="L87" t="str">
+        <v>2103</v>
+      </c>
+      <c r="M87" t="str">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C88" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="D88" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="E88" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="F88" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="G88" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="H88" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="I88" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="J88" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="K88" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="L88" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="M88" t="str">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="G92" t="str">
+        <v>sift1m_128</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B93" t="str">
+        <v>time</v>
+      </c>
+      <c r="C93" t="str">
+        <v>108.7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>greddy</v>
+      </c>
+      <c r="B94" t="str">
+        <v>pv_num</v>
+      </c>
+      <c r="C94" t="str">
+        <v>10</v>
+      </c>
+      <c r="D94" t="str">
+        <v>50</v>
+      </c>
+      <c r="E94" t="str">
+        <v>100</v>
+      </c>
+      <c r="F94" t="str">
+        <v>200</v>
+      </c>
+      <c r="G94" t="str">
+        <v>500</v>
+      </c>
+      <c r="H94" t="str">
+        <v>1000</v>
+      </c>
+      <c r="I94" t="str">
+        <v>2000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>3000</v>
+      </c>
+      <c r="K94" t="str">
+        <v>5000</v>
+      </c>
+      <c r="L94" t="str">
+        <v>10000</v>
+      </c>
+      <c r="M94" t="str">
+        <v>15000</v>
+      </c>
+      <c r="N94" t="str">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="str">
+        <v>time</v>
+      </c>
+      <c r="C95" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="D95" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="E95" t="str">
+        <v>1.9</v>
+      </c>
+      <c r="F95" t="str">
+        <v>3.0</v>
+      </c>
+      <c r="G95" t="str">
+        <v>5.6</v>
+      </c>
+      <c r="H95" t="str">
+        <v>13.5</v>
+      </c>
+      <c r="I95" t="str">
+        <v>36.3</v>
+      </c>
+      <c r="J95" t="str">
+        <v>90.9</v>
+      </c>
+      <c r="K95" t="str">
+        <v>138.9</v>
+      </c>
+      <c r="L95" t="str">
+        <v>222.87</v>
+      </c>
+      <c r="M95" t="str">
+        <v>321</v>
+      </c>
+      <c r="N95" t="str">
+        <v>404.4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C96" t="str">
+        <v>0.223</v>
+      </c>
+      <c r="D96" t="str">
+        <v>0.359</v>
+      </c>
+      <c r="E96" t="str">
+        <v>0.430</v>
+      </c>
+      <c r="F96" t="str">
+        <v>0.561</v>
+      </c>
+      <c r="G96" t="str">
+        <v>0.71</v>
+      </c>
+      <c r="H96" t="str">
+        <v>0.82</v>
+      </c>
+      <c r="I96" t="str">
+        <v>0.9</v>
+      </c>
+      <c r="J96" t="str">
+        <v>0.958</v>
+      </c>
+      <c r="K96" t="str">
+        <v>0.978</v>
+      </c>
+      <c r="L96" t="str">
+        <v>0.991</v>
+      </c>
+      <c r="M96" t="str">
+        <v>0.994</v>
+      </c>
+      <c r="N96" t="str">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B97" t="str">
+        <v>time</v>
+      </c>
+      <c r="C97" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="D97" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="E97" t="str">
+        <v>2.1</v>
+      </c>
+      <c r="F97" t="str">
+        <v>3.1</v>
+      </c>
+      <c r="G97" t="str">
+        <v>6.7</v>
+      </c>
+      <c r="H97" t="str">
+        <v>12.7</v>
+      </c>
+      <c r="I97" t="str">
+        <v>22.4</v>
+      </c>
+      <c r="J97" t="str">
+        <v>36.9</v>
+      </c>
+      <c r="K97" t="str">
+        <v>79.5</v>
+      </c>
+      <c r="L97" t="str">
+        <v>201</v>
+      </c>
+      <c r="M97" t="str">
+        <v>354</v>
+      </c>
+      <c r="N97" t="str">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v/>
+      </c>
+      <c r="B98" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C98" t="str">
+        <v>0.236</v>
+      </c>
+      <c r="D98" t="str">
+        <v>0.337</v>
+      </c>
+      <c r="E98" t="str">
+        <v>0.416</v>
+      </c>
+      <c r="F98" t="str">
+        <v>0.514</v>
+      </c>
+      <c r="G98" t="str">
+        <v>0.675</v>
+      </c>
+      <c r="H98" t="str">
+        <v>0.791</v>
+      </c>
+      <c r="I98" t="str">
+        <v>0.875</v>
+      </c>
+      <c r="J98" t="str">
+        <v>0.935</v>
+      </c>
+      <c r="K98" t="str">
+        <v>0.97</v>
+      </c>
+      <c r="L98" t="str">
+        <v>0.991</v>
+      </c>
+      <c r="M98" t="str">
+        <v>0.996</v>
+      </c>
+      <c r="N98" t="str">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>smlar_8</v>
+      </c>
+      <c r="B99" t="str">
+        <v>thres</v>
+      </c>
+      <c r="C99" t="str">
+        <v>1</v>
+      </c>
+      <c r="D99" t="str">
+        <v>0.875</v>
+      </c>
+      <c r="E99" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="F99" t="str">
+        <v>0.625</v>
+      </c>
+      <c r="G99" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="H99" t="str">
+        <v>0.375</v>
+      </c>
+      <c r="I99" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="J99" t="str">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="str">
+        <v>time</v>
+      </c>
+      <c r="C100" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="D100" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="E100" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F100" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="G100" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="H100" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="I100" t="str">
+        <v>14.8</v>
+      </c>
+      <c r="J100" t="str">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C101" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="D101" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="E101" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="F101" t="str">
+        <v>0.118</v>
+      </c>
+      <c r="G101" t="str">
+        <v>0.155</v>
+      </c>
+      <c r="H101" t="str">
+        <v>0.228</v>
+      </c>
+      <c r="I101" t="str">
+        <v>0.386</v>
+      </c>
+      <c r="J101" t="str">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>smlar_16</v>
+      </c>
+      <c r="B102" t="str">
+        <v>thres</v>
+      </c>
+      <c r="C102" t="str">
+        <v>1</v>
+      </c>
+      <c r="D102" t="str">
+        <v>0.9735</v>
+      </c>
+      <c r="E102" t="str">
+        <v>0.875</v>
+      </c>
+      <c r="F102" t="str">
+        <v>0.8125</v>
+      </c>
+      <c r="G102" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="H102" t="str">
+        <v>0.6875</v>
+      </c>
+      <c r="I102" t="str">
+        <v>0.625</v>
+      </c>
+      <c r="J102" t="str">
+        <v>0.5625</v>
+      </c>
+      <c r="K102" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="L102" t="str">
+        <v>0.4735</v>
+      </c>
+      <c r="M102" t="str">
+        <v>0.375</v>
+      </c>
+      <c r="N102" t="str">
+        <v>0.3125</v>
+      </c>
+      <c r="O102" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="P102" t="str">
+        <v>0.1875</v>
+      </c>
+      <c r="Q102" t="str">
+        <v>0.125</v>
+      </c>
+      <c r="R102" t="str">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="str">
+        <v>time</v>
+      </c>
+      <c r="C103" t="str">
+        <v>89.6</v>
+      </c>
+      <c r="D103" t="str">
+        <v>89.6</v>
+      </c>
+      <c r="E103" t="str">
+        <v>89.6</v>
+      </c>
+      <c r="F103" t="str">
+        <v>89.6</v>
+      </c>
+      <c r="G103" t="str">
+        <v>89.6</v>
+      </c>
+      <c r="H103" t="str">
+        <v>89.6</v>
+      </c>
+      <c r="I103" t="str">
+        <v>91.2</v>
+      </c>
+      <c r="J103" t="str">
+        <v>97.4</v>
+      </c>
+      <c r="K103" t="str">
+        <v>179.3</v>
+      </c>
+      <c r="L103" t="str">
+        <v>257.7</v>
+      </c>
+      <c r="M103" t="str">
+        <v>474.6</v>
+      </c>
+      <c r="N103" t="str">
+        <v>1107</v>
+      </c>
+      <c r="O103" t="str">
+        <v>2320</v>
+      </c>
+      <c r="P103" t="str">
+        <v>2472</v>
+      </c>
+      <c r="Q103" t="str">
+        <v>2901</v>
+      </c>
+      <c r="R103" t="str">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C104" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="D104" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="E104" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="F104" t="str">
+        <v>0.118</v>
+      </c>
+      <c r="G104" t="str">
+        <v>0.138</v>
+      </c>
+      <c r="H104" t="str">
+        <v>0.165</v>
+      </c>
+      <c r="I104" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="J104" t="str">
+        <v>0.265</v>
+      </c>
+      <c r="K104" t="str">
+        <v>0.364</v>
+      </c>
+      <c r="L104" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="M104" t="str">
+        <v>0.654</v>
+      </c>
+      <c r="N104" t="str">
+        <v>0.808</v>
+      </c>
+      <c r="O104" t="str">
+        <v>0.921</v>
+      </c>
+      <c r="P104" t="str">
+        <v>0.981</v>
+      </c>
+      <c r="Q104" t="str">
+        <v>0.999</v>
+      </c>
+      <c r="R104" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>vector</v>
+      </c>
+      <c r="B105" t="str">
+        <v>probes</v>
+      </c>
+      <c r="C105" t="str">
+        <v>1</v>
+      </c>
+      <c r="D105" t="str">
+        <v>5</v>
+      </c>
+      <c r="E105" t="str">
+        <v>10</v>
+      </c>
+      <c r="F105" t="str">
+        <v>20</v>
+      </c>
+      <c r="G105" t="str">
+        <v>50</v>
+      </c>
+      <c r="H105" t="str">
+        <v>100</v>
+      </c>
+      <c r="I105" t="str">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v/>
+      </c>
+      <c r="B106" t="str">
+        <v>time</v>
+      </c>
+      <c r="C106" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="D106" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E106" t="str">
+        <v>3.0</v>
+      </c>
+      <c r="F106" t="str">
+        <v>5.5</v>
+      </c>
+      <c r="G106" t="str">
+        <v>12.8</v>
+      </c>
+      <c r="H106" t="str">
+        <v>24</v>
+      </c>
+      <c r="I106" t="str">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C107" t="str">
+        <v>0.524</v>
+      </c>
+      <c r="D107" t="str">
+        <v>0.853</v>
+      </c>
+      <c r="E107" t="str">
+        <v>0.931</v>
+      </c>
+      <c r="F107" t="str">
+        <v>0.973</v>
+      </c>
+      <c r="G107" t="str">
+        <v>0.995</v>
+      </c>
+      <c r="H107" t="str">
+        <v>1</v>
+      </c>
+      <c r="I107" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="G111" t="str">
+        <v>gist1m_128</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B112" t="str">
+        <v>time</v>
+      </c>
+      <c r="C112" t="str">
+        <v>108.7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>greddy</v>
+      </c>
+      <c r="B113" t="str">
+        <v>pv_num</v>
+      </c>
+      <c r="C113" t="str">
+        <v>10</v>
+      </c>
+      <c r="D113" t="str">
+        <v>50</v>
+      </c>
+      <c r="E113" t="str">
+        <v>100</v>
+      </c>
+      <c r="F113" t="str">
+        <v>200</v>
+      </c>
+      <c r="G113" t="str">
+        <v>500</v>
+      </c>
+      <c r="H113" t="str">
+        <v>1000</v>
+      </c>
+      <c r="I113" t="str">
+        <v>2000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>3000</v>
+      </c>
+      <c r="K113" t="str">
+        <v>5000</v>
+      </c>
+      <c r="L113" t="str">
+        <v>10000</v>
+      </c>
+      <c r="M113" t="str">
+        <v>15000</v>
+      </c>
+      <c r="N113" t="str">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="str">
+        <v>time</v>
+      </c>
+      <c r="C114" t="str">
+        <v>1.42</v>
+      </c>
+      <c r="D114" t="str">
+        <v>3.2</v>
+      </c>
+      <c r="E114" t="str">
+        <v>5.5</v>
+      </c>
+      <c r="F114" t="str">
+        <v>9.1</v>
+      </c>
+      <c r="G114" t="str">
+        <v>23.1</v>
+      </c>
+      <c r="H114" t="str">
+        <v>48</v>
+      </c>
+      <c r="I114" t="str">
+        <v>107.9</v>
+      </c>
+      <c r="J114" t="str">
+        <v>171.4</v>
+      </c>
+      <c r="K114" t="str">
+        <v>237.6</v>
+      </c>
+      <c r="L114" t="str">
+        <v>319</v>
+      </c>
+      <c r="M114" t="str">
+        <v>348</v>
+      </c>
+      <c r="N114" t="str">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C115" t="str">
+        <v>0.157</v>
+      </c>
+      <c r="D115" t="str">
+        <v>0.242</v>
+      </c>
+      <c r="E115" t="str">
+        <v>0.306</v>
+      </c>
+      <c r="F115" t="str">
+        <v>0.397</v>
+      </c>
+      <c r="G115" t="str">
+        <v>0.546</v>
+      </c>
+      <c r="H115" t="str">
+        <v>0.657</v>
+      </c>
+      <c r="I115" t="str">
+        <v>0.795</v>
+      </c>
+      <c r="J115" t="str">
+        <v>0.84</v>
+      </c>
+      <c r="K115" t="str">
+        <v>0.878</v>
+      </c>
+      <c r="L115" t="str">
+        <v>0.907</v>
+      </c>
+      <c r="M115" t="str">
+        <v>0.909</v>
+      </c>
+      <c r="N115" t="str">
+        <v>0.909</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B116" t="str">
+        <v>time</v>
+      </c>
+      <c r="C116" t="str">
+        <v>1.23</v>
+      </c>
+      <c r="D116" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="E116" t="str">
+        <v>5.76</v>
+      </c>
+      <c r="F116" t="str">
+        <v>10.3</v>
+      </c>
+      <c r="G116" t="str">
+        <v>25.1</v>
+      </c>
+      <c r="H116" t="str">
+        <v>51</v>
+      </c>
+      <c r="I116" t="str">
+        <v>115.8</v>
+      </c>
+      <c r="J116" t="str">
+        <v>198</v>
+      </c>
+      <c r="K116" t="str">
+        <v>396.9</v>
+      </c>
+      <c r="L116" t="str">
+        <v>1222</v>
+      </c>
+      <c r="M116" t="str">
+        <v>2377</v>
+      </c>
+      <c r="N116" t="str">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v/>
+      </c>
+      <c r="B117" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C117" t="str">
+        <v>0.163</v>
+      </c>
+      <c r="D117" t="str">
+        <v>0.259</v>
+      </c>
+      <c r="E117" t="str">
+        <v>0.313</v>
+      </c>
+      <c r="F117" t="str">
+        <v>0.40</v>
+      </c>
+      <c r="G117" t="str">
+        <v>0.532</v>
+      </c>
+      <c r="H117" t="str">
+        <v>0.666</v>
+      </c>
+      <c r="I117" t="str">
+        <v>0.796</v>
+      </c>
+      <c r="J117" t="str">
+        <v>0.87</v>
+      </c>
+      <c r="K117" t="str">
+        <v>0.933</v>
+      </c>
+      <c r="L117" t="str">
+        <v>0.985</v>
+      </c>
+      <c r="M117" t="str">
+        <v>0.995</v>
+      </c>
+      <c r="N117" t="str">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>smlar_8</v>
+      </c>
+      <c r="B118" t="str">
+        <v>thres</v>
+      </c>
+      <c r="C118" t="str">
+        <v>1</v>
+      </c>
+      <c r="D118" t="str">
+        <v>0.875</v>
+      </c>
+      <c r="E118" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="F118" t="str">
+        <v>0.625</v>
+      </c>
+      <c r="G118" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="H118" t="str">
+        <v>0.375</v>
+      </c>
+      <c r="I118" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="J118" t="str">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="str">
+        <v>time</v>
+      </c>
+      <c r="C119" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="D119" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="E119" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="F119" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="G119" t="str">
+        <v>1.1</v>
+      </c>
+      <c r="H119" t="str">
+        <v>1.24</v>
+      </c>
+      <c r="I119" t="str">
+        <v>7.7</v>
+      </c>
+      <c r="J119" t="str">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C120" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="D120" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="E120" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="F120" t="str">
+        <v>0.11</v>
+      </c>
+      <c r="G120" t="str">
+        <v>0.131</v>
+      </c>
+      <c r="H120" t="str">
+        <v>0.139</v>
+      </c>
+      <c r="I120" t="str">
+        <v>0.154</v>
+      </c>
+      <c r="J120" t="str">
+        <v>0.319</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>smlar_16</v>
+      </c>
+      <c r="B121" t="str">
+        <v>thres</v>
+      </c>
+      <c r="C121" t="str">
+        <v>1</v>
+      </c>
+      <c r="D121" t="str">
+        <v>0.9735</v>
+      </c>
+      <c r="E121" t="str">
+        <v>0.875</v>
+      </c>
+      <c r="F121" t="str">
+        <v>0.8125</v>
+      </c>
+      <c r="G121" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="H121" t="str">
+        <v>0.6875</v>
+      </c>
+      <c r="I121" t="str">
+        <v>0.625</v>
+      </c>
+      <c r="J121" t="str">
+        <v>0.5625</v>
+      </c>
+      <c r="K121" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="L121" t="str">
+        <v>0.4735</v>
+      </c>
+      <c r="M121" t="str">
+        <v>0.375</v>
+      </c>
+      <c r="N121" t="str">
+        <v>0.3125</v>
+      </c>
+      <c r="O121" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="P121" t="str">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="str">
+        <v>time</v>
+      </c>
+      <c r="C122" t="str">
+        <v>85</v>
+      </c>
+      <c r="D122" t="str">
+        <v>85</v>
+      </c>
+      <c r="E122" t="str">
+        <v>85</v>
+      </c>
+      <c r="F122" t="str">
+        <v>85</v>
+      </c>
+      <c r="G122" t="str">
+        <v>85</v>
+      </c>
+      <c r="H122" t="str">
+        <v>85</v>
+      </c>
+      <c r="I122" t="str">
+        <v>87.8</v>
+      </c>
+      <c r="J122" t="str">
+        <v>91.2</v>
+      </c>
+      <c r="K122" t="str">
+        <v>143.1</v>
+      </c>
+      <c r="L122" t="str">
+        <v>205</v>
+      </c>
+      <c r="M122" t="str">
+        <v>377</v>
+      </c>
+      <c r="N122" t="str">
+        <v>956</v>
+      </c>
+      <c r="O122" t="str">
+        <v>2172</v>
+      </c>
+      <c r="P122" t="str">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C123" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="D123" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="E123" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="F123" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="G123" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="H123" t="str">
+        <v>0.126</v>
+      </c>
+      <c r="I123" t="str">
+        <v>0.137</v>
+      </c>
+      <c r="J123" t="str">
+        <v>0.138</v>
+      </c>
+      <c r="K123" t="str">
+        <v>0.148</v>
+      </c>
+      <c r="L123" t="str">
+        <v>0.162</v>
+      </c>
+      <c r="M123" t="str">
+        <v>0.196</v>
+      </c>
+      <c r="N123" t="str">
+        <v>0.293</v>
+      </c>
+      <c r="O123" t="str">
+        <v>0.491</v>
+      </c>
+      <c r="P123" t="str">
+        <v>0.983</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>vector</v>
+      </c>
+      <c r="B124" t="str">
+        <v>probes</v>
+      </c>
+      <c r="C124" t="str">
+        <v>1</v>
+      </c>
+      <c r="D124" t="str">
+        <v>5</v>
+      </c>
+      <c r="E124" t="str">
+        <v>10</v>
+      </c>
+      <c r="F124" t="str">
+        <v>20</v>
+      </c>
+      <c r="G124" t="str">
+        <v>50</v>
+      </c>
+      <c r="H124" t="str">
+        <v>100</v>
+      </c>
+      <c r="I124" t="str">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v/>
+      </c>
+      <c r="B125" t="str">
+        <v>time</v>
+      </c>
+      <c r="C125" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="D125" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="E125" t="str">
+        <v>2.8</v>
+      </c>
+      <c r="F125" t="str">
+        <v>5.15</v>
+      </c>
+      <c r="G125" t="str">
+        <v>11.9</v>
+      </c>
+      <c r="H125" t="str">
+        <v>22.3</v>
+      </c>
+      <c r="I125" t="str">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C126" t="str">
+        <v>0.351</v>
+      </c>
+      <c r="D126" t="str">
+        <v>0.632</v>
+      </c>
+      <c r="E126" t="str">
+        <v>0.765</v>
+      </c>
+      <c r="F126" t="str">
+        <v>0.865</v>
+      </c>
+      <c r="G126" t="str">
+        <v>0.94</v>
+      </c>
+      <c r="H126" t="str">
+        <v>0.986</v>
+      </c>
+      <c r="I126" t="str">
+        <v>0.994</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:R126"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/experiment/result.xlsx
+++ b/experiment/result.xlsx
@@ -2532,7 +2532,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2645,6 +2645,9 @@
       <c r="J5" t="str">
         <v>53.8</v>
       </c>
+      <c r="L5" t="str">
+        <v xml:space="preserve"> =TEXTJOIN(",", true,B4:I4)</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3642,7 +3645,7 @@
         <v>6.5</v>
       </c>
       <c r="I52" t="str">
-        <v>83.8</v>
+        <v/>
       </c>
       <c r="J52" t="str">
         <v>11.5</v>
@@ -3733,16 +3736,405 @@
         <v>2155</v>
       </c>
     </row>
+    <row r="57">
+      <c r="F57" t="str">
+        <v>sift10m_64</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v/>
+      </c>
+      <c r="B58" t="str">
+        <v>0</v>
+      </c>
+      <c r="C58" t="str">
+        <v>1</v>
+      </c>
+      <c r="D58" t="str">
+        <v>2</v>
+      </c>
+      <c r="E58" t="str">
+        <v>3</v>
+      </c>
+      <c r="F58" t="str">
+        <v>4</v>
+      </c>
+      <c r="G58" t="str">
+        <v>5</v>
+      </c>
+      <c r="H58" t="str">
+        <v>6</v>
+      </c>
+      <c r="I58" t="str">
+        <v>7</v>
+      </c>
+      <c r="J58" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B59" t="str">
+        <v>537.7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>gph</v>
+      </c>
+      <c r="B60" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="C60" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="D60" t="str">
+        <v>4</v>
+      </c>
+      <c r="E60" t="str">
+        <v>5.4</v>
+      </c>
+      <c r="F60" t="str">
+        <v>16.2</v>
+      </c>
+      <c r="G60" t="str">
+        <v>17.9</v>
+      </c>
+      <c r="H60" t="str">
+        <v>44.6</v>
+      </c>
+      <c r="I60" t="str">
+        <v>60.4</v>
+      </c>
+      <c r="J60" t="str">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B61" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="C61" t="str">
+        <v>7.9</v>
+      </c>
+      <c r="D61" t="str">
+        <v>23.9</v>
+      </c>
+      <c r="E61" t="str">
+        <v>29.5</v>
+      </c>
+      <c r="F61" t="str">
+        <v>46.2</v>
+      </c>
+      <c r="G61" t="str">
+        <v>67.6</v>
+      </c>
+      <c r="H61" t="str">
+        <v>105.8</v>
+      </c>
+      <c r="I61" t="str">
+        <v>209.5</v>
+      </c>
+      <c r="J61" t="str">
+        <v>330.9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>bktree</v>
+      </c>
+      <c r="B62" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="C62" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="D62" t="str">
+        <v>2.0</v>
+      </c>
+      <c r="E62" t="str">
+        <v>7.5</v>
+      </c>
+      <c r="F62" t="str">
+        <v>19.2</v>
+      </c>
+      <c r="G62" t="str">
+        <v>43.8</v>
+      </c>
+      <c r="H62" t="str">
+        <v>85.1</v>
+      </c>
+      <c r="I62" t="str">
+        <v>146.7</v>
+      </c>
+      <c r="J62" t="str">
+        <v>235.8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>smlar_4</v>
+      </c>
+      <c r="B63" t="str">
+        <v>4.3</v>
+      </c>
+      <c r="C63" t="str">
+        <v>5.9</v>
+      </c>
+      <c r="D63" t="str">
+        <v>24.2</v>
+      </c>
+      <c r="E63" t="str">
+        <v>32.2</v>
+      </c>
+      <c r="F63" t="str">
+        <v/>
+      </c>
+      <c r="G63" t="str">
+        <v/>
+      </c>
+      <c r="I63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>smlar_8</v>
+      </c>
+      <c r="B64" t="str">
+        <v>149.6</v>
+      </c>
+      <c r="C64" t="str">
+        <v>144.9</v>
+      </c>
+      <c r="D64" t="str">
+        <v>151.6</v>
+      </c>
+      <c r="E64" t="str">
+        <v>182.1</v>
+      </c>
+      <c r="F64" t="str">
+        <v>831.8</v>
+      </c>
+      <c r="G64" t="str">
+        <v>996.4</v>
+      </c>
+      <c r="H64" t="str">
+        <v>518.3</v>
+      </c>
+      <c r="I64" t="str">
+        <v>7280</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="F67" t="str">
+        <v>sift100m_64</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v/>
+      </c>
+      <c r="B68" t="str">
+        <v>0</v>
+      </c>
+      <c r="C68" t="str">
+        <v>1</v>
+      </c>
+      <c r="D68" t="str">
+        <v>2</v>
+      </c>
+      <c r="E68" t="str">
+        <v>3</v>
+      </c>
+      <c r="F68" t="str">
+        <v>4</v>
+      </c>
+      <c r="G68" t="str">
+        <v>5</v>
+      </c>
+      <c r="H68" t="str">
+        <v>6</v>
+      </c>
+      <c r="I68" t="str">
+        <v>7</v>
+      </c>
+      <c r="J68" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>bf</v>
+      </c>
+      <c r="B69" t="str">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>gph</v>
+      </c>
+      <c r="B70" t="str">
+        <v>1.9</v>
+      </c>
+      <c r="C70" t="str">
+        <v>6.8</v>
+      </c>
+      <c r="D70" t="str">
+        <v>28.7</v>
+      </c>
+      <c r="E70" t="str">
+        <v>67</v>
+      </c>
+      <c r="F70" t="str">
+        <v>93.3</v>
+      </c>
+      <c r="G70" t="str">
+        <v>295.8</v>
+      </c>
+      <c r="H70" t="str">
+        <v>435</v>
+      </c>
+      <c r="I70" t="str">
+        <v>950</v>
+      </c>
+      <c r="J70" t="str">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>mih</v>
+      </c>
+      <c r="B71" t="str">
+        <v>26.7</v>
+      </c>
+      <c r="C71" t="str">
+        <v>118.1</v>
+      </c>
+      <c r="D71" t="str">
+        <v>248</v>
+      </c>
+      <c r="E71" t="str">
+        <v>410.4</v>
+      </c>
+      <c r="F71" t="str">
+        <v>687.9</v>
+      </c>
+      <c r="G71" t="str">
+        <v>1307</v>
+      </c>
+      <c r="H71" t="str">
+        <v>1673</v>
+      </c>
+      <c r="I71" t="str">
+        <v>3477</v>
+      </c>
+      <c r="J71" t="str">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>bktree</v>
+      </c>
+      <c r="B72" t="str">
+        <v>0.06</v>
+      </c>
+      <c r="C72" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="D72" t="str">
+        <v>6.4</v>
+      </c>
+      <c r="E72" t="str">
+        <v>33.1</v>
+      </c>
+      <c r="F72" t="str">
+        <v>111.3</v>
+      </c>
+      <c r="G72" t="str">
+        <v>308.6</v>
+      </c>
+      <c r="H72" t="str">
+        <v>657</v>
+      </c>
+      <c r="I72" t="str">
+        <v>1226</v>
+      </c>
+      <c r="J72" t="str">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>smlar_4</v>
+      </c>
+      <c r="B73" t="str">
+        <v>1.1</v>
+      </c>
+      <c r="C73" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="D73" t="str">
+        <v>316</v>
+      </c>
+      <c r="E73" t="str">
+        <v>420</v>
+      </c>
+      <c r="G73" t="str">
+        <v/>
+      </c>
+      <c r="I73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>smlar_8</v>
+      </c>
+      <c r="B74" t="str">
+        <v>1337</v>
+      </c>
+      <c r="C74" t="str">
+        <v>1349</v>
+      </c>
+      <c r="D74" t="str">
+        <v>1377</v>
+      </c>
+      <c r="E74" t="str">
+        <v>1748</v>
+      </c>
+      <c r="F74" t="str">
+        <v>11287</v>
+      </c>
+      <c r="G74" t="str">
+        <v>16408</v>
+      </c>
+      <c r="H74" t="str">
+        <v>53146</v>
+      </c>
+      <c r="I74" t="str">
+        <v>116674</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N54"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N74"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R126"/>
+  <dimension ref="A1:S171"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4256,6 +4648,24 @@
       <c r="M18" t="str">
         <v>10</v>
       </c>
+      <c r="N18" t="str">
+        <v>11</v>
+      </c>
+      <c r="O18" t="str">
+        <v>12</v>
+      </c>
+      <c r="P18" t="str">
+        <v>13</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>14</v>
+      </c>
+      <c r="R18" t="str">
+        <v>15</v>
+      </c>
+      <c r="S18" t="str">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" t="str">
@@ -4294,6 +4704,24 @@
       <c r="M19" t="str">
         <v>147</v>
       </c>
+      <c r="N19" t="str">
+        <v>219</v>
+      </c>
+      <c r="O19" t="str">
+        <v>289</v>
+      </c>
+      <c r="P19" t="str">
+        <v>355</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>433</v>
+      </c>
+      <c r="R19" t="str">
+        <v>518</v>
+      </c>
+      <c r="S19" t="str">
+        <v>609</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" t="str">
@@ -4332,6 +4760,24 @@
       <c r="M20" t="str">
         <v>0.582</v>
       </c>
+      <c r="N20" t="str">
+        <v>0.72</v>
+      </c>
+      <c r="O20" t="str">
+        <v>0.837</v>
+      </c>
+      <c r="P20" t="str">
+        <v>0.942</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>0.993</v>
+      </c>
+      <c r="R20" t="str">
+        <v>1</v>
+      </c>
+      <c r="S20" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="G24" t="str">
@@ -7229,9 +7675,1112 @@
         <v>0.994</v>
       </c>
     </row>
+    <row r="130">
+      <c r="F130" t="str">
+        <v>sift10m</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>time</v>
+      </c>
+      <c r="B131" t="str">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>pv_num</v>
+      </c>
+      <c r="B132" t="str">
+        <v>10</v>
+      </c>
+      <c r="C132" t="str">
+        <v>50</v>
+      </c>
+      <c r="D132" t="str">
+        <v>100</v>
+      </c>
+      <c r="E132" t="str">
+        <v>200</v>
+      </c>
+      <c r="F132" t="str">
+        <v>500</v>
+      </c>
+      <c r="G132" t="str">
+        <v>1000</v>
+      </c>
+      <c r="H132" t="str">
+        <v>2000</v>
+      </c>
+      <c r="I132" t="str">
+        <v>3000</v>
+      </c>
+      <c r="J132" t="str">
+        <v>5000</v>
+      </c>
+      <c r="K132" t="str">
+        <v>10000</v>
+      </c>
+      <c r="L132" t="str">
+        <v>15000</v>
+      </c>
+      <c r="M132" t="str">
+        <v>20000</v>
+      </c>
+      <c r="N132" t="str">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>time</v>
+      </c>
+      <c r="B133" t="str">
+        <v>1.1</v>
+      </c>
+      <c r="C133" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="D133" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="E133" t="str">
+        <v>2.9</v>
+      </c>
+      <c r="F133" t="str">
+        <v>5.2</v>
+      </c>
+      <c r="G133" t="str">
+        <v>8.6</v>
+      </c>
+      <c r="H133" t="str">
+        <v>16.4</v>
+      </c>
+      <c r="I133" t="str">
+        <v>23.6</v>
+      </c>
+      <c r="J133" t="str">
+        <v>39.2</v>
+      </c>
+      <c r="K133" t="str">
+        <v>94.5</v>
+      </c>
+      <c r="L133" t="str">
+        <v>252.8</v>
+      </c>
+      <c r="M133" t="str">
+        <v>485.5</v>
+      </c>
+      <c r="N133" t="str">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>recall</v>
+      </c>
+      <c r="B134" t="str">
+        <v>0.246</v>
+      </c>
+      <c r="C134" t="str">
+        <v>0.347</v>
+      </c>
+      <c r="D134" t="str">
+        <v>0.41</v>
+      </c>
+      <c r="E134" t="str">
+        <v>0.49</v>
+      </c>
+      <c r="F134" t="str">
+        <v>0.661</v>
+      </c>
+      <c r="G134" t="str">
+        <v>0.766</v>
+      </c>
+      <c r="H134" t="str">
+        <v>0.88</v>
+      </c>
+      <c r="I134" t="str">
+        <v>0.921</v>
+      </c>
+      <c r="J134" t="str">
+        <v>0.958</v>
+      </c>
+      <c r="K134" t="str">
+        <v>0.99</v>
+      </c>
+      <c r="L134" t="str">
+        <v>0.993</v>
+      </c>
+      <c r="M134" t="str">
+        <v>0.99</v>
+      </c>
+      <c r="N134" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>time</v>
+      </c>
+      <c r="B135" t="str">
+        <v>1.4</v>
+      </c>
+      <c r="C135" t="str">
+        <v>1.9</v>
+      </c>
+      <c r="D135" t="str">
+        <v>2.5</v>
+      </c>
+      <c r="E135" t="str">
+        <v>3.7</v>
+      </c>
+      <c r="F135" t="str">
+        <v>6.7</v>
+      </c>
+      <c r="G135" t="str">
+        <v>10.5</v>
+      </c>
+      <c r="H135" t="str">
+        <v>18.5</v>
+      </c>
+      <c r="I135" t="str">
+        <v>25.1</v>
+      </c>
+      <c r="J135" t="str">
+        <v>39.1</v>
+      </c>
+      <c r="K135" t="str">
+        <v>77.2</v>
+      </c>
+      <c r="L135" t="str">
+        <v>116.8</v>
+      </c>
+      <c r="M135" t="str">
+        <v>148.8</v>
+      </c>
+      <c r="N135" t="str">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>recall</v>
+      </c>
+      <c r="B136" t="str">
+        <v>0.236</v>
+      </c>
+      <c r="C136" t="str">
+        <v>0.327</v>
+      </c>
+      <c r="D136" t="str">
+        <v>0.404</v>
+      </c>
+      <c r="E136" t="str">
+        <v>0.483</v>
+      </c>
+      <c r="F136" t="str">
+        <v>0.643</v>
+      </c>
+      <c r="G136" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="H136" t="str">
+        <v>0.866</v>
+      </c>
+      <c r="I136" t="str">
+        <v>0.921</v>
+      </c>
+      <c r="J136" t="str">
+        <v>0.959</v>
+      </c>
+      <c r="K136" t="str">
+        <v>0.992</v>
+      </c>
+      <c r="L136" t="str">
+        <v>0.997</v>
+      </c>
+      <c r="M136" t="str">
+        <v>0.999</v>
+      </c>
+      <c r="N136" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>thres</v>
+      </c>
+      <c r="B137" t="str">
+        <v>1</v>
+      </c>
+      <c r="C137" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="D137" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="E137" t="str">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>time</v>
+      </c>
+      <c r="B138" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="C138" t="str">
+        <v>0.4</v>
+      </c>
+      <c r="D138" t="str">
+        <v>31.7</v>
+      </c>
+      <c r="E138" t="str">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>recall</v>
+      </c>
+      <c r="B139" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="C139" t="str">
+        <v>0.121</v>
+      </c>
+      <c r="D139" t="str">
+        <v>0.26</v>
+      </c>
+      <c r="E139" t="str">
+        <v>0.665</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>thres</v>
+      </c>
+      <c r="B140" t="str">
+        <v>1</v>
+      </c>
+      <c r="C140" t="str">
+        <v>0.875</v>
+      </c>
+      <c r="D140" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="E140" t="str">
+        <v>0.625</v>
+      </c>
+      <c r="F140" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G140" t="str">
+        <v>0.375</v>
+      </c>
+      <c r="H140" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="I140" t="str">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>time</v>
+      </c>
+      <c r="B141" t="str">
+        <v>136.6</v>
+      </c>
+      <c r="C141" t="str">
+        <v>136.6</v>
+      </c>
+      <c r="D141" t="str">
+        <v>139.7</v>
+      </c>
+      <c r="E141" t="str">
+        <v>181.7</v>
+      </c>
+      <c r="F141" t="str">
+        <v>866.6</v>
+      </c>
+      <c r="G141" t="str">
+        <v>1216</v>
+      </c>
+      <c r="H141" t="str">
+        <v>5139</v>
+      </c>
+      <c r="I141" t="str">
+        <v>7589</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>recall</v>
+      </c>
+      <c r="B142" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="C142" t="str">
+        <v>0.134</v>
+      </c>
+      <c r="D142" t="str">
+        <v>0.179</v>
+      </c>
+      <c r="E142" t="str">
+        <v>0.304</v>
+      </c>
+      <c r="F142" t="str">
+        <v>0.538</v>
+      </c>
+      <c r="G142" t="str">
+        <v>0.828</v>
+      </c>
+      <c r="H142" t="str">
+        <v>0.97</v>
+      </c>
+      <c r="I142" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>probes</v>
+      </c>
+      <c r="B143" t="str">
+        <v>1</v>
+      </c>
+      <c r="C143" t="str">
+        <v>5</v>
+      </c>
+      <c r="D143" t="str">
+        <v>10</v>
+      </c>
+      <c r="E143" t="str">
+        <v>20</v>
+      </c>
+      <c r="F143" t="str">
+        <v>50</v>
+      </c>
+      <c r="G143" t="str">
+        <v>100</v>
+      </c>
+      <c r="H143" t="str">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>time</v>
+      </c>
+      <c r="B144" t="str">
+        <v>1.9</v>
+      </c>
+      <c r="C144" t="str">
+        <v>8.3</v>
+      </c>
+      <c r="D144" t="str">
+        <v>16.3</v>
+      </c>
+      <c r="E144" t="str">
+        <v>32.6</v>
+      </c>
+      <c r="F144" t="str">
+        <v>79.2</v>
+      </c>
+      <c r="G144" t="str">
+        <v>168.3</v>
+      </c>
+      <c r="H144" t="str">
+        <v>340.8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>recall</v>
+      </c>
+      <c r="B145" t="str">
+        <v>0.572</v>
+      </c>
+      <c r="C145" t="str">
+        <v>0.886</v>
+      </c>
+      <c r="D145" t="str">
+        <v>0.946</v>
+      </c>
+      <c r="E145" t="str">
+        <v>0.98</v>
+      </c>
+      <c r="F145" t="str">
+        <v>0.997</v>
+      </c>
+      <c r="G145" t="str">
+        <v>0.999</v>
+      </c>
+      <c r="H145" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>time</v>
+      </c>
+      <c r="B146" t="str">
+        <v>8127</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>r</v>
+      </c>
+      <c r="B147" t="str">
+        <v>0</v>
+      </c>
+      <c r="C147" t="str">
+        <v>1</v>
+      </c>
+      <c r="D147" t="str">
+        <v>2</v>
+      </c>
+      <c r="E147" t="str">
+        <v>3</v>
+      </c>
+      <c r="F147" t="str">
+        <v>4</v>
+      </c>
+      <c r="G147" t="str">
+        <v>5</v>
+      </c>
+      <c r="H147" t="str">
+        <v>6</v>
+      </c>
+      <c r="I147" t="str">
+        <v>7</v>
+      </c>
+      <c r="J147" t="str">
+        <v>8</v>
+      </c>
+      <c r="K147" t="str">
+        <v>9</v>
+      </c>
+      <c r="L147" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>time</v>
+      </c>
+      <c r="B148" t="str">
+        <v>0.03</v>
+      </c>
+      <c r="C148" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="D148" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="E148" t="str">
+        <v>8.1</v>
+      </c>
+      <c r="F148" t="str">
+        <v>25.9</v>
+      </c>
+      <c r="G148" t="str">
+        <v>68.1</v>
+      </c>
+      <c r="H148" t="str">
+        <v>150.8</v>
+      </c>
+      <c r="I148" t="str">
+        <v>291.9</v>
+      </c>
+      <c r="J148" t="str">
+        <v>509.7</v>
+      </c>
+      <c r="K148" t="str">
+        <v>818.9</v>
+      </c>
+      <c r="L148" t="str">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>recall</v>
+      </c>
+      <c r="B149" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="C149" t="str">
+        <v>0.112</v>
+      </c>
+      <c r="D149" t="str">
+        <v>0.138</v>
+      </c>
+      <c r="E149" t="str">
+        <v>0.205</v>
+      </c>
+      <c r="F149" t="str">
+        <v>0.254</v>
+      </c>
+      <c r="G149" t="str">
+        <v>0.356</v>
+      </c>
+      <c r="H149" t="str">
+        <v>0.496</v>
+      </c>
+      <c r="I149" t="str">
+        <v>0.679</v>
+      </c>
+      <c r="J149" t="str">
+        <v>0.833</v>
+      </c>
+      <c r="K149" t="str">
+        <v>0.926</v>
+      </c>
+      <c r="L149" t="str">
+        <v>0.981</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="F152" t="str">
+        <v>sift100m</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>time</v>
+      </c>
+      <c r="B153" t="str">
+        <v>11190</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>pv_num</v>
+      </c>
+      <c r="B154" t="str">
+        <v>10</v>
+      </c>
+      <c r="C154" t="str">
+        <v>50</v>
+      </c>
+      <c r="D154" t="str">
+        <v>100</v>
+      </c>
+      <c r="E154" t="str">
+        <v>200</v>
+      </c>
+      <c r="F154" t="str">
+        <v>500</v>
+      </c>
+      <c r="G154" t="str">
+        <v>1000</v>
+      </c>
+      <c r="H154" t="str">
+        <v>2000</v>
+      </c>
+      <c r="I154" t="str">
+        <v>3000</v>
+      </c>
+      <c r="J154" t="str">
+        <v>5000</v>
+      </c>
+      <c r="K154" t="str">
+        <v>10000</v>
+      </c>
+      <c r="L154" t="str">
+        <v>15000</v>
+      </c>
+      <c r="M154" t="str">
+        <v>20000</v>
+      </c>
+      <c r="N154" t="str">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>time</v>
+      </c>
+      <c r="C155" t="str">
+        <v>23.2</v>
+      </c>
+      <c r="D155" t="str">
+        <v>30.7</v>
+      </c>
+      <c r="E155" t="str">
+        <v>34.6</v>
+      </c>
+      <c r="F155" t="str">
+        <v>40.5</v>
+      </c>
+      <c r="G155" t="str">
+        <v>107.9</v>
+      </c>
+      <c r="H155" t="str">
+        <v>109</v>
+      </c>
+      <c r="J155" t="str">
+        <v>202</v>
+      </c>
+      <c r="K155" t="str">
+        <v>290</v>
+      </c>
+      <c r="L155" t="str">
+        <v/>
+      </c>
+      <c r="M155" t="str">
+        <v>321</v>
+      </c>
+      <c r="N155" t="str">
+        <v>557.8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C156" t="str">
+        <v>0.351</v>
+      </c>
+      <c r="D156" t="str">
+        <v>0.371</v>
+      </c>
+      <c r="E156" t="str">
+        <v>0.425</v>
+      </c>
+      <c r="F156" t="str">
+        <v>0.512</v>
+      </c>
+      <c r="G156" t="str">
+        <v>0.624</v>
+      </c>
+      <c r="H156" t="str">
+        <v>0.733</v>
+      </c>
+      <c r="J156" t="str">
+        <v>0.841</v>
+      </c>
+      <c r="K156" t="str">
+        <v>0.924</v>
+      </c>
+      <c r="M156" t="str">
+        <v>0.976</v>
+      </c>
+      <c r="N156" t="str">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>time</v>
+      </c>
+      <c r="C157" t="str">
+        <v>22.1</v>
+      </c>
+      <c r="D157" t="str">
+        <v>26.7</v>
+      </c>
+      <c r="E157" t="str">
+        <v>30.5</v>
+      </c>
+      <c r="F157" t="str">
+        <v>61</v>
+      </c>
+      <c r="G157" t="str">
+        <v>123</v>
+      </c>
+      <c r="H157" t="str">
+        <v>207</v>
+      </c>
+      <c r="J157" t="str">
+        <v>232</v>
+      </c>
+      <c r="K157" t="str">
+        <v>354</v>
+      </c>
+      <c r="M157" t="str">
+        <v>421</v>
+      </c>
+      <c r="N157" t="str">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>recall</v>
+      </c>
+      <c r="C158" t="str">
+        <v>0.371</v>
+      </c>
+      <c r="D158" t="str">
+        <v>0.391</v>
+      </c>
+      <c r="E158" t="str">
+        <v>0.438</v>
+      </c>
+      <c r="F158" t="str">
+        <v>0.53</v>
+      </c>
+      <c r="G158" t="str">
+        <v>0.632</v>
+      </c>
+      <c r="H158" t="str">
+        <v>0.738</v>
+      </c>
+      <c r="J158" t="str">
+        <v>0.84</v>
+      </c>
+      <c r="K158" t="str">
+        <v>0.922</v>
+      </c>
+      <c r="M158" t="str">
+        <v>0.976</v>
+      </c>
+      <c r="N158" t="str">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>thres</v>
+      </c>
+      <c r="B159" t="str">
+        <v>1</v>
+      </c>
+      <c r="C159" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="D159" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="E159" t="str">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>time</v>
+      </c>
+      <c r="B160" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="D160" t="str">
+        <v>278.5</v>
+      </c>
+      <c r="E160" t="str">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>recall</v>
+      </c>
+      <c r="B161" t="str">
+        <v>0.126</v>
+      </c>
+      <c r="D161" t="str">
+        <v>0.421</v>
+      </c>
+      <c r="E161" t="str">
+        <v>0.836</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>thres</v>
+      </c>
+      <c r="B162" t="str">
+        <v>1</v>
+      </c>
+      <c r="C162" t="str">
+        <v>0.875</v>
+      </c>
+      <c r="D162" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="E162" t="str">
+        <v>0.625</v>
+      </c>
+      <c r="F162" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="G162" t="str">
+        <v>0.375</v>
+      </c>
+      <c r="H162" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="I162" t="str">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>time</v>
+      </c>
+      <c r="B163" t="str">
+        <v>1387</v>
+      </c>
+      <c r="C163" t="str">
+        <v>1385</v>
+      </c>
+      <c r="D163" t="str">
+        <v>1402</v>
+      </c>
+      <c r="E163" t="str">
+        <v>1743</v>
+      </c>
+      <c r="F163" t="str">
+        <v>11387</v>
+      </c>
+      <c r="G163" t="str">
+        <v>13464</v>
+      </c>
+      <c r="H163" t="str">
+        <v>53467</v>
+      </c>
+      <c r="I163" t="str">
+        <v>117290</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>recall</v>
+      </c>
+      <c r="B164" t="str">
+        <v>0.126</v>
+      </c>
+      <c r="C164" t="str">
+        <v>0.183</v>
+      </c>
+      <c r="D164" t="str">
+        <v>0.285</v>
+      </c>
+      <c r="E164" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="F164" t="str">
+        <v>0.7769</v>
+      </c>
+      <c r="G164" t="str">
+        <v>0.95</v>
+      </c>
+      <c r="H164" t="str">
+        <v>0.997</v>
+      </c>
+      <c r="I164" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>probes</v>
+      </c>
+      <c r="B165" t="str">
+        <v>1</v>
+      </c>
+      <c r="C165" t="str">
+        <v>5</v>
+      </c>
+      <c r="D165" t="str">
+        <v>10</v>
+      </c>
+      <c r="E165" t="str">
+        <v>20</v>
+      </c>
+      <c r="F165" t="str">
+        <v>50</v>
+      </c>
+      <c r="G165" t="str">
+        <v>100</v>
+      </c>
+      <c r="H165" t="str">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>time</v>
+      </c>
+      <c r="B166" t="str">
+        <v>17.1</v>
+      </c>
+      <c r="C166" t="str">
+        <v>104.9</v>
+      </c>
+      <c r="D166" t="str">
+        <v>197.1</v>
+      </c>
+      <c r="E166" t="str">
+        <v>377</v>
+      </c>
+      <c r="F166" t="str">
+        <v>908.7</v>
+      </c>
+      <c r="G166" t="str">
+        <v>1761</v>
+      </c>
+      <c r="H166" t="str">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>recall</v>
+      </c>
+      <c r="B167" t="str">
+        <v>0.655</v>
+      </c>
+      <c r="C167" t="str">
+        <v>0.913</v>
+      </c>
+      <c r="D167" t="str">
+        <v>0.966</v>
+      </c>
+      <c r="E167" t="str">
+        <v>0.994</v>
+      </c>
+      <c r="F167" t="str">
+        <v>1</v>
+      </c>
+      <c r="G167" t="str">
+        <v>1</v>
+      </c>
+      <c r="H167" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>time</v>
+      </c>
+      <c r="B168" t="str">
+        <v>2357976</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>r</v>
+      </c>
+      <c r="B169" t="str">
+        <v>0</v>
+      </c>
+      <c r="C169" t="str">
+        <v>1</v>
+      </c>
+      <c r="D169" t="str">
+        <v>2</v>
+      </c>
+      <c r="E169" t="str">
+        <v>3</v>
+      </c>
+      <c r="F169" t="str">
+        <v>4</v>
+      </c>
+      <c r="G169" t="str">
+        <v>5</v>
+      </c>
+      <c r="H169" t="str">
+        <v>6</v>
+      </c>
+      <c r="I169" t="str">
+        <v>7</v>
+      </c>
+      <c r="J169" t="str">
+        <v>8</v>
+      </c>
+      <c r="K169" t="str">
+        <v>9</v>
+      </c>
+      <c r="L169" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>time</v>
+      </c>
+      <c r="B170" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="C170" t="str">
+        <v>13.7</v>
+      </c>
+      <c r="D170" t="str">
+        <v>112.9</v>
+      </c>
+      <c r="E170" t="str">
+        <v>368.6</v>
+      </c>
+      <c r="F170" t="str">
+        <v>521.9</v>
+      </c>
+      <c r="G170" t="str">
+        <v>788.1</v>
+      </c>
+      <c r="H170" t="str">
+        <v>1373</v>
+      </c>
+      <c r="I170" t="str">
+        <v>2460</v>
+      </c>
+      <c r="J170" t="str">
+        <v>4226</v>
+      </c>
+      <c r="K170" t="str">
+        <v>6812</v>
+      </c>
+      <c r="L170" t="str">
+        <v>10301</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>recall</v>
+      </c>
+      <c r="B171" t="str">
+        <v>0.1</v>
+      </c>
+      <c r="C171" t="str">
+        <v>0.138</v>
+      </c>
+      <c r="D171" t="str">
+        <v>0.175</v>
+      </c>
+      <c r="E171" t="str">
+        <v>0.268</v>
+      </c>
+      <c r="F171" t="str">
+        <v>0.411</v>
+      </c>
+      <c r="G171" t="str">
+        <v>0.627</v>
+      </c>
+      <c r="H171" t="str">
+        <v>0.782</v>
+      </c>
+      <c r="I171" t="str">
+        <v>0.922</v>
+      </c>
+      <c r="J171" t="str">
+        <v>0.983</v>
+      </c>
+      <c r="K171" t="str">
+        <v>1</v>
+      </c>
+      <c r="L171" t="str">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R126"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S171"/>
   </ignoredErrors>
 </worksheet>
 </file>
